--- a/StateOfPractice/AHP2021/MedicalImaging/AHP_Charts.xlsx
+++ b/StateOfPractice/AHP2021/MedicalImaging/AHP_Charts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" state="visible" r:id="rId2"/>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Visibility &amp; Transparency</t>
   </si>
   <si>
-    <t xml:space="preserve">Overall</t>
+    <t xml:space="preserve">Overrall</t>
   </si>
   <si>
     <t xml:space="preserve">3D Slicer</t>
@@ -73,58 +73,64 @@
     <t xml:space="preserve">OHIF Viewer</t>
   </si>
   <si>
+    <t xml:space="preserve">ParaView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weasis</t>
+  </si>
+  <si>
     <t xml:space="preserve">BioImage Suite Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medInria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESALIUS 3</t>
   </si>
   <si>
     <t xml:space="preserve">SMILI</t>
   </si>
   <si>
-    <t xml:space="preserve">ParaView</t>
+    <t xml:space="preserve">OsiriX Lite</t>
   </si>
   <si>
-    <t xml:space="preserve">INVESALIUS 3</t>
+    <t xml:space="preserve">Horos</t>
   </si>
   <si>
-    <t xml:space="preserve">medInria</t>
+    <t xml:space="preserve">ITK-SNAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ginkgo CADx</t>
   </si>
   <si>
     <t xml:space="preserve">Gwyddion</t>
   </si>
   <si>
-    <t xml:space="preserve">Ginkgo CADx</t>
+    <t xml:space="preserve">MicroView</t>
   </si>
   <si>
-    <t xml:space="preserve">OsiriX Lite</t>
+    <t xml:space="preserve">Papaya</t>
   </si>
   <si>
-    <t xml:space="preserve">Weasis</t>
+    <t xml:space="preserve">MRIcroGL</t>
   </si>
   <si>
-    <t xml:space="preserve">MicroView</t>
+    <t xml:space="preserve">dwv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XMedCon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DicomBrowser</t>
   </si>
   <si>
     <t xml:space="preserve">Slice:Drop</t>
   </si>
   <si>
-    <t xml:space="preserve">Papaya</t>
+    <t xml:space="preserve">AMIDE</t>
   </si>
   <si>
-    <t xml:space="preserve">Horos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XMedCon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRIcroGL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DicomBrowser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITK-SNAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMIDE</t>
+    <t xml:space="preserve">GATE</t>
   </si>
   <si>
     <t xml:space="preserve">3DimViewer</t>
@@ -133,16 +139,10 @@
     <t xml:space="preserve">dicompyler</t>
   </si>
   <si>
-    <t xml:space="preserve">dwv</t>
+    <t xml:space="preserve">Drishti</t>
   </si>
   <si>
     <t xml:space="preserve">MatrixUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drishti</t>
   </si>
   <si>
     <t xml:space="preserve">DICOM Viewer</t>
@@ -323,7 +323,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -339,7 +339,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 0</c:f>
+              <c:f>overall!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -380,7 +380,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>categories</c:f>
+              <c:f>overall!$A$2:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -399,16 +399,16 @@
                   <c:v>ParaView</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Weasis</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>INVESALIUS 3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>medInria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>SMILI</c:v>
@@ -426,10 +426,10 @@
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Papaya</c:v>
@@ -444,10 +444,10 @@
                   <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>DicomBrowser</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Slice:Drop</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>AMIDE</c:v>
@@ -475,96 +475,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>0</c:f>
+              <c:f>overall!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.01188042547659</c:v>
+                  <c:v>0.011880425476822</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.001996329433134</c:v>
+                  <c:v>0.001996329427782</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.001996329433134</c:v>
+                  <c:v>0.001996329427782</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.003215024699679</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.003215024699679</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.008334707354722</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.003215024699679</c:v>
+                  <c:v>0.008334707360577</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.008334707354722</c:v>
+                  <c:v>0.005386716562362</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.005386716566128</c:v>
+                  <c:v>0.008334707360577</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.003215024699679</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.003215024699679</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.003215024699679</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.001365297444308</c:v>
+                  <c:v>0.001365297442266</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.005386716566128</c:v>
+                  <c:v>0.005386716562362</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.005386716566128</c:v>
+                  <c:v>0.005386716562362</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.005386716566128</c:v>
+                  <c:v>0.005386716562362</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.003215024699679</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003215024699679</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.000739874355482</c:v>
+                  <c:v>0.000739874355386</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.005386716566128</c:v>
+                  <c:v>0.005386716562362</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.008334707354722</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.003215024699679</c:v>
+                  <c:v>0.008334707360577</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.003215024699679</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.000739874355482</c:v>
+                  <c:v>0.000739874355386</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.001996329433134</c:v>
+                  <c:v>0.001996329427782</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.003215024699679</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.001365297444308</c:v>
+                  <c:v>0.001365297442266</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00098850278879</c:v>
+                  <c:v>0.000988502788587</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.000739874355482</c:v>
+                  <c:v>0.000739874355386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,7 +575,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 1</c:f>
+              <c:f>overall!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -616,7 +616,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>categories</c:f>
+              <c:f>overall!$A$2:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -635,16 +635,16 @@
                   <c:v>ParaView</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Weasis</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>INVESALIUS 3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>medInria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>SMILI</c:v>
@@ -662,10 +662,10 @@
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Papaya</c:v>
@@ -680,10 +680,10 @@
                   <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>DicomBrowser</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Slice:Drop</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>AMIDE</c:v>
@@ -711,96 +711,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>1</c:f>
+              <c:f>overall!$C$2:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.009107502076867</c:v>
+                  <c:v>0.009107502081149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.009107502076867</c:v>
+                  <c:v>0.009107502081149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.006093012199391</c:v>
+                  <c:v>0.006093012196034</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.012616067187627</c:v>
+                  <c:v>0.012616067188489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.006093012199391</c:v>
+                  <c:v>0.006093012196034</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.006093012199391</c:v>
+                  <c:v>0.003936177265735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.003936177266273</c:v>
+                  <c:v>0.006093012196034</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.001604043266506</c:v>
+                  <c:v>0.006093012196034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.006093012199391</c:v>
+                  <c:v>0.001604043270523</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.002547296377523</c:v>
+                  <c:v>0.002547296380556</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.006093012199391</c:v>
+                  <c:v>0.006093012196034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.003936177266273</c:v>
+                  <c:v>0.003936177265735</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.001604043266506</c:v>
+                  <c:v>0.001604043270523</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.003936177266273</c:v>
+                  <c:v>0.003936177265735</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.001604043266506</c:v>
+                  <c:v>0.003936177265735</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.003936177266273</c:v>
+                  <c:v>0.001604043270523</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.006093012199391</c:v>
+                  <c:v>0.006093012196034</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.002547296377523</c:v>
+                  <c:v>0.002547296380556</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.001604043266506</c:v>
+                  <c:v>0.001604043270523</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.002547296377523</c:v>
+                  <c:v>0.002547296380556</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.001034177644341</c:v>
+                  <c:v>0.003936177265735</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.003936177266273</c:v>
+                  <c:v>0.001034177644024</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.001604043266506</c:v>
+                  <c:v>0.001604043270523</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.001034177644341</c:v>
+                  <c:v>0.001034177644024</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.001604043266506</c:v>
+                  <c:v>0.001604043270523</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.001604043266506</c:v>
+                  <c:v>0.001604043270523</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.001034177644341</c:v>
+                  <c:v>0.001034177644024</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.001034177644341</c:v>
+                  <c:v>0.001034177644024</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.001034177644341</c:v>
+                  <c:v>0.001034177644024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,7 +811,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 2</c:f>
+              <c:f>overall!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -852,7 +852,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>categories</c:f>
+              <c:f>overall!$A$2:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -871,16 +871,16 @@
                   <c:v>ParaView</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Weasis</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>INVESALIUS 3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>medInria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>SMILI</c:v>
@@ -898,10 +898,10 @@
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Papaya</c:v>
@@ -916,10 +916,10 @@
                   <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>DicomBrowser</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Slice:Drop</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>AMIDE</c:v>
@@ -947,96 +947,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>2</c:f>
+              <c:f>overall!$D$2:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.008858344910225</c:v>
+                  <c:v>0.008858344911054</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.008858344910225</c:v>
+                  <c:v>0.008858344911054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.008858344910225</c:v>
+                  <c:v>0.008858344911054</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.005676956343877</c:v>
+                  <c:v>0.005676956348873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.008858344910225</c:v>
+                  <c:v>0.008858344911054</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.005676956343877</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.005676956348873</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.000742424888815</c:v>
+                  <c:v>0.000742424887185</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.000742424888815</c:v>
+                  <c:v>0.000742424887185</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00310482719969</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.000742424888815</c:v>
+                  <c:v>0.000742424887185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,7 +1047,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 3</c:f>
+              <c:f>overall!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1088,7 +1088,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>categories</c:f>
+              <c:f>overall!$A$2:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -1107,16 +1107,16 @@
                   <c:v>ParaView</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Weasis</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>INVESALIUS 3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>medInria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>SMILI</c:v>
@@ -1134,10 +1134,10 @@
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Papaya</c:v>
@@ -1152,10 +1152,10 @@
                   <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>DicomBrowser</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Slice:Drop</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>AMIDE</c:v>
@@ -1183,96 +1183,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>3</c:f>
+              <c:f>overall!$E$2:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0012270484221</c:v>
+                  <c:v>0.001227048417644</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.00068444538882</c:v>
+                  <c:v>0.000684445390785</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00068444538882</c:v>
+                  <c:v>0.000684445390785</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00068444538882</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.000684445390785</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00068444538882</c:v>
+                  <c:v>0.000684445390785</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.004978587710613</c:v>
+                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.00068444538882</c:v>
+                  <c:v>0.000684445390785</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00068444538882</c:v>
+                  <c:v>0.000684445390785</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0012270484221</c:v>
+                  <c:v>0.001227048417644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,7 +1283,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 4</c:f>
+              <c:f>overall!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1324,7 +1324,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>categories</c:f>
+              <c:f>overall!$A$2:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -1343,16 +1343,16 @@
                   <c:v>ParaView</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Weasis</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>INVESALIUS 3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>medInria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>SMILI</c:v>
@@ -1370,10 +1370,10 @@
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Papaya</c:v>
@@ -1388,10 +1388,10 @@
                   <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>DicomBrowser</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Slice:Drop</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>AMIDE</c:v>
@@ -1419,96 +1419,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>4</c:f>
+              <c:f>overall!$F$2:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.007574761299243</c:v>
+                  <c:v>0.007574761299083</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.007574761299243</c:v>
+                  <c:v>0.007574761299083</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.007574761299243</c:v>
+                  <c:v>0.007574761299083</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.007574761299243</c:v>
+                  <c:v>0.007574761299083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.007574761299243</c:v>
+                  <c:v>0.007574761299083</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.004590962243985</c:v>
+                  <c:v>0.002753185493444</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.002753185488614</c:v>
+                  <c:v>0.004590962249284</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.007574761299243</c:v>
+                  <c:v>0.004590962249284</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.004590962243985</c:v>
+                  <c:v>0.007574761299083</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.004590962243985</c:v>
+                  <c:v>0.004590962249284</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.004590962243985</c:v>
+                  <c:v>0.004590962249284</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.002753185488614</c:v>
+                  <c:v>0.002753185493444</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.004590962243985</c:v>
+                  <c:v>0.004590962249284</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.004590962243985</c:v>
+                  <c:v>0.004590962249284</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.004590962243985</c:v>
+                  <c:v>0.004590962249284</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.004590962243985</c:v>
+                  <c:v>0.004590962249284</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.002753185488614</c:v>
+                  <c:v>0.002753185493444</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.002753185488614</c:v>
+                  <c:v>0.002753185493444</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.001671545877611</c:v>
+                  <c:v>0.00167154587665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001671545877611</c:v>
+                  <c:v>0.00167154587665</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.001671545877611</c:v>
+                  <c:v>0.00167154587665</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.001671545877611</c:v>
+                  <c:v>0.00167154587665</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.002753185488614</c:v>
+                  <c:v>0.002753185493444</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.000675822488821</c:v>
+                  <c:v>0.000675822484444</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.001671545877611</c:v>
+                  <c:v>0.00167154587665</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.001671545877611</c:v>
+                  <c:v>0.00167154587665</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.001671545877611</c:v>
+                  <c:v>0.00167154587665</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.001671545877611</c:v>
+                  <c:v>0.00167154587665</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.001120728355443</c:v>
+                  <c:v>0.001120728357472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,7 +1519,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 5</c:f>
+              <c:f>overall!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1560,7 +1560,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>categories</c:f>
+              <c:f>overall!$A$2:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -1579,16 +1579,16 @@
                   <c:v>ParaView</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Weasis</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>INVESALIUS 3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>medInria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>SMILI</c:v>
@@ -1606,10 +1606,10 @@
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Papaya</c:v>
@@ -1624,10 +1624,10 @@
                   <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>DicomBrowser</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Slice:Drop</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>AMIDE</c:v>
@@ -1655,96 +1655,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>5</c:f>
+              <c:f>overall!$G$2:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.011376986309974</c:v>
+                  <c:v>0.012003140241968</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.007849059599215</c:v>
+                  <c:v>0.008649766002991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.005014350199499</c:v>
+                  <c:v>0.00738639270377</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.007849059599215</c:v>
+                  <c:v>0.008070316845122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.007849059599215</c:v>
+                  <c:v>0.006393150913425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.005014350199499</c:v>
+                  <c:v>0.008536521057152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.007849059599215</c:v>
+                  <c:v>0.003993214448657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.005014350199499</c:v>
+                  <c:v>0.005874269119448</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.005014350199499</c:v>
+                  <c:v>0.004526991414819</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.003161505866351</c:v>
+                  <c:v>0.002754130818816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.002087718722013</c:v>
+                  <c:v>0.002385500924686</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.003161505866351</c:v>
+                  <c:v>0.003678451011629</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.005014350199499</c:v>
+                  <c:v>0.004877972263608</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.003161505866351</c:v>
+                  <c:v>0.002761849066697</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.003161505866351</c:v>
+                  <c:v>0.001031410320711</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.000514415666615</c:v>
+                  <c:v>0.003359515611924</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.003161505866351</c:v>
+                  <c:v>0.003418646529607</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003161505866351</c:v>
+                  <c:v>0.002685852537286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.005014350199499</c:v>
+                  <c:v>0.004105057495601</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001412239277637</c:v>
+                  <c:v>0.001457547491935</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.000982397388791</c:v>
+                  <c:v>0.001416206372331</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.001412239277637</c:v>
+                  <c:v>0.000898891642548</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.000982397388791</c:v>
+                  <c:v>0.001063784135254</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.005014350199499</c:v>
+                  <c:v>0.003956900450265</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.002087718722013</c:v>
+                  <c:v>0.001674017755082</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.000982397388791</c:v>
+                  <c:v>0.00092493106705</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.001412239277637</c:v>
+                  <c:v>0.001251017424327</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.001412239277637</c:v>
+                  <c:v>0.001113634833004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.000982397388791</c:v>
+                  <c:v>0.0008620306114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,7 +1755,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 6</c:f>
+              <c:f>overall!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1796,7 +1796,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>categories</c:f>
+              <c:f>overall!$A$2:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -1815,16 +1815,16 @@
                   <c:v>ParaView</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Weasis</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>INVESALIUS 3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>medInria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>SMILI</c:v>
@@ -1842,10 +1842,10 @@
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Papaya</c:v>
@@ -1860,10 +1860,10 @@
                   <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>DicomBrowser</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Slice:Drop</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>AMIDE</c:v>
@@ -1891,96 +1891,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>6</c:f>
+              <c:f>overall!$H$2:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.008876770888001</c:v>
+                  <c:v>0.008876770890413</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.008876770888001</c:v>
+                  <c:v>0.008876770890413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.008876770888001</c:v>
+                  <c:v>0.008876770890413</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.008876770888001</c:v>
+                  <c:v>0.008876770890413</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.005721141310539</c:v>
+                  <c:v>0.005721141311357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.005721141310539</c:v>
+                  <c:v>0.003460689351617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.003460689355209</c:v>
+                  <c:v>0.005721141311357</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.001949171466472</c:v>
+                  <c:v>0.003460689351617</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.003460689355209</c:v>
+                  <c:v>0.001949171470009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.005721141310539</c:v>
+                  <c:v>0.005721141311357</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.003460689355209</c:v>
+                  <c:v>0.003460689351617</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.003460689355209</c:v>
+                  <c:v>0.003460689351617</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.003460689355209</c:v>
+                  <c:v>0.003460689351617</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.001949171466472</c:v>
+                  <c:v>0.001949171470009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.001949171466472</c:v>
+                  <c:v>0.001949171470009</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.001949171466472</c:v>
+                  <c:v>0.001949171470009</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.001949171466472</c:v>
+                  <c:v>0.001949171470009</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.001949171466472</c:v>
+                  <c:v>0.001949171470009</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.005721141310539</c:v>
+                  <c:v>0.005721141311357</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001949171466472</c:v>
+                  <c:v>0.001949171470009</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.001949171466472</c:v>
+                  <c:v>0.001949171470009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.001949171466472</c:v>
+                  <c:v>0.001949171470009</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.001949171466472</c:v>
+                  <c:v>0.001949171470009</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.005721141310539</c:v>
+                  <c:v>0.005721141311357</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.001949171466472</c:v>
+                  <c:v>0.001949171470009</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.000894955777688</c:v>
+                  <c:v>0.00089495577286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.003460689355209</c:v>
+                  <c:v>0.003460689351617</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.001949171466472</c:v>
+                  <c:v>0.001949171470009</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.001949171466472</c:v>
+                  <c:v>0.001949171470009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,7 +1991,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 7</c:f>
+              <c:f>overall!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2032,7 +2032,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>categories</c:f>
+              <c:f>overall!$A$2:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -2051,16 +2051,16 @@
                   <c:v>ParaView</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Weasis</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>INVESALIUS 3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>medInria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>SMILI</c:v>
@@ -2078,10 +2078,10 @@
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Papaya</c:v>
@@ -2096,10 +2096,10 @@
                   <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>DicomBrowser</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Slice:Drop</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>AMIDE</c:v>
@@ -2127,96 +2127,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>7</c:f>
+              <c:f>overall!$I$2:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.008790711732454</c:v>
+                  <c:v>0.008790711736114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.008790711732454</c:v>
+                  <c:v>0.008790711736114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.005298241832804</c:v>
+                  <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.005298241832804</c:v>
+                  <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.005298241832804</c:v>
+                  <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.001721053266495</c:v>
+                  <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.005298241832804</c:v>
+                  <c:v>0.001721053265594</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.005298241832804</c:v>
+                  <c:v>0.003006415811732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00300641581081</c:v>
+                  <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.001721053266495</c:v>
+                  <c:v>0.001721053265594</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.005298241832804</c:v>
+                  <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.005298241832804</c:v>
+                  <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.005298241832804</c:v>
+                  <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00300641581081</c:v>
+                  <c:v>0.003006415811732</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00300641581081</c:v>
+                  <c:v>0.003006415811732</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00300641581081</c:v>
+                  <c:v>0.003006415811732</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.001721053266495</c:v>
+                  <c:v>0.001721053265594</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.00300641581081</c:v>
+                  <c:v>0.003006415811732</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.005298241832804</c:v>
+                  <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001721053266495</c:v>
+                  <c:v>0.001721053265594</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.001721053266495</c:v>
+                  <c:v>0.001721053265594</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.001721053266495</c:v>
+                  <c:v>0.001721053265594</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00300641581081</c:v>
+                  <c:v>0.003006415811732</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.005298241832804</c:v>
+                  <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.001721053266495</c:v>
+                  <c:v>0.001721053265594</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.001721053266495</c:v>
+                  <c:v>0.001721053265594</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.005298241832804</c:v>
+                  <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.001721053266495</c:v>
+                  <c:v>0.001721053265594</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.001721053266495</c:v>
+                  <c:v>0.001721053265594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2227,7 +2227,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 8</c:f>
+              <c:f>overall!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2268,7 +2268,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>categories</c:f>
+              <c:f>overall!$A$2:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -2287,16 +2287,16 @@
                   <c:v>ParaView</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Weasis</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>INVESALIUS 3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>medInria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>SMILI</c:v>
@@ -2314,10 +2314,10 @@
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Papaya</c:v>
@@ -2332,10 +2332,10 @@
                   <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>DicomBrowser</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Slice:Drop</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>AMIDE</c:v>
@@ -2363,96 +2363,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>8</c:f>
+              <c:f>overall!$J$2:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.012995009376478</c:v>
+                  <c:v>0.01299500937249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.012995009376478</c:v>
+                  <c:v>0.01299500937249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.009720143899028</c:v>
+                  <c:v>0.00972014390414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.004538845210657</c:v>
+                  <c:v>0.004538845215916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.004538845210657</c:v>
+                  <c:v>0.004538845215916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.002626514010848</c:v>
+                  <c:v>0.006929139075616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.006929139077085</c:v>
+                  <c:v>0.00262651400929</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.002626514010848</c:v>
+                  <c:v>0.004538845215916</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.004538845210657</c:v>
+                  <c:v>0.00262651400929</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.002626514010848</c:v>
+                  <c:v>0.00262651400929</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.002626514010848</c:v>
+                  <c:v>0.00262651400929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.002626514010848</c:v>
+                  <c:v>0.00262651400929</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.002626514010848</c:v>
+                  <c:v>0.00262651400929</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.001483640166518</c:v>
+                  <c:v>0.001483640166952</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.002626514010848</c:v>
+                  <c:v>0.00262651400929</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.002626514010848</c:v>
+                  <c:v>0.00262651400929</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.001483640166518</c:v>
+                  <c:v>0.001483640166952</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.006929139077085</c:v>
+                  <c:v>0.006929139075616</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.002626514010848</c:v>
+                  <c:v>0.00262651400929</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001483640166518</c:v>
+                  <c:v>0.001483640166952</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.001483640166518</c:v>
+                  <c:v>0.001483640166952</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.001483640166518</c:v>
+                  <c:v>0.001483640166952</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.001483640166518</c:v>
+                  <c:v>0.001483640166952</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.002626514010848</c:v>
+                  <c:v>0.00262651400929</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.001483640166518</c:v>
+                  <c:v>0.001483640166952</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.001483640166518</c:v>
+                  <c:v>0.001483640166952</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.002626514010848</c:v>
+                  <c:v>0.00262651400929</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.002626514010848</c:v>
+                  <c:v>0.00262651400929</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.004538845210657</c:v>
+                  <c:v>0.004538845215916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2460,11 +2460,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="11532532"/>
-        <c:axId val="61594731"/>
+        <c:axId val="38289785"/>
+        <c:axId val="5392666"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="11532532"/>
+        <c:axId val="38289785"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2492,7 +2492,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61594731"/>
+        <c:crossAx val="5392666"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2500,7 +2500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61594731"/>
+        <c:axId val="5392666"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,7 +2537,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11532532"/>
+        <c:crossAx val="38289785"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2595,7 +2595,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2630,6 +2630,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2640,191 +2641,191 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Visibility &amp; Transparency'!$A$1:$A$29</c:f>
+              <c:f>Installability!$A$1:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>3D Slicer</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>BioImage Suite Web</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>INVESALIUS 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Slice:Drop</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ginkgo CADx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MicroView</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XMedCon</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OHIF Viewer</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ParaView</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SMILI</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Horos</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Papaya</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MRIcroGL</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>DicomBrowser</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>AMIDE</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>dicompyler</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>ImageJ</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="21">
                   <c:v>Fiji</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>MRIcroGL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Weasis</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ParaView</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>OHIF Viewer</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="22">
+                  <c:v>3DimViewer</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>ITK-SNAP</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Drishti</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>MatrixUser</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>dwv</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>GATE</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>DICOM Viewer</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>medInria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>SMILI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Drishti</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>INVESALIUS 3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>OsiriX Lite</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>GATE</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>MatrixUser</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>BioImage Suite Web</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ITK-SNAP</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Horos</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>dwv</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Gwyddion</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Ginkgo CADx</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Papaya</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Slice:Drop</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>AMIDE</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>DicomBrowser</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>dicompyler</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>XMedCon</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3DimViewer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Visibility &amp; Transparency'!$B$1:$B$29</c:f>
+              <c:f>Installability!$B$1:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.119642477596722</c:v>
+                  <c:v>0.011880425476822</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.111245140812967</c:v>
+                  <c:v>0.008334707360577</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.087905973568946</c:v>
+                  <c:v>0.008334707360577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.061412252636368</c:v>
+                  <c:v>0.008334707360577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.060925920885528</c:v>
+                  <c:v>0.005386716562362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.049057239970101</c:v>
+                  <c:v>0.005386716562362</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.044966260643932</c:v>
+                  <c:v>0.005386716562362</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.039167918723596</c:v>
+                  <c:v>0.005386716562362</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.03230960639619</c:v>
+                  <c:v>0.005386716562362</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.031517045167171</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.027984544737997</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.027071367472617</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.027042723127141</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.026814927299615</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.021947982916626</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.021289391893076</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.020749890561298</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.020129038972496</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.019148094226871</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0181906631702</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.01792643196933</c:v>
+                  <c:v>0.001996329427782</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.017585390793097</c:v>
+                  <c:v>0.001996329427782</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.017128622520416</c:v>
+                  <c:v>0.001996329427782</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.015279658352717</c:v>
+                  <c:v>0.001365297442266</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.015011008796529</c:v>
+                  <c:v>0.001365297442266</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.013494910326535</c:v>
+                  <c:v>0.000988502788587</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.011814396310187</c:v>
+                  <c:v>0.000739874355386</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.011679525708987</c:v>
+                  <c:v>0.000739874355386</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.011561594442748</c:v>
+                  <c:v>0.000739874355386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2832,11 +2833,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="92728794"/>
-        <c:axId val="91732047"/>
+        <c:axId val="17402983"/>
+        <c:axId val="36423787"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92728794"/>
+        <c:axId val="17402983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +2865,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91732047"/>
+        <c:crossAx val="36423787"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2872,7 +2873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91732047"/>
+        <c:axId val="36423787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2887,7 +2888,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2909,7 +2910,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92728794"/>
+        <c:crossAx val="17402983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2929,14 +2930,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2971,6 +2972,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2981,65 +2983,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Installability!$A$1:$A$29</c:f>
+              <c:f>'Correctness &amp; Verifiability'!$A$1:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>OHIF Viewer</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3D Slicer</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>ImageJ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Papaya</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ParaView</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Slice:Drop</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
+                  <c:v>Fiji</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DicomBrowser</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Horos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Ginkgo CADx</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MRIcroGL</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>XMedCon</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SMILI</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>dicompyler</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>INVESALIUS 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Gwyddion</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Ginkgo CADx</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>XMedCon</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>medInria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DicomBrowser</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Weasis</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>OsiriX Lite</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Horos</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>dicompyler</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>OHIF Viewer</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Papaya</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>MRIcroGL</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>SMILI</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>ParaView</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>AMIDE</c:v>
@@ -3048,124 +3050,124 @@
                   <c:v>3DimViewer</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Fiji</c:v>
+                  <c:v>ITK-SNAP</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>ImageJ</c:v>
+                  <c:v>dwv</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>ITK-SNAP</c:v>
+                  <c:v>MicroView</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>GATE</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>DICOM Viewer</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>MatrixUser</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>Drishti</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>MatrixUser</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>dwv</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>GATE</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>DICOM Viewer</c:v>
+                  <c:v>Slice:Drop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Installability!$B$1:$B$29</c:f>
+              <c:f>'Correctness &amp; Verifiability'!$B$1:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.098135126002848</c:v>
+                  <c:v>0.105348529428444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08871105975876</c:v>
+                  <c:v>0.091756799513988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.066805520367159</c:v>
+                  <c:v>0.071707207511665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06638957937868</c:v>
+                  <c:v>0.064866180032911</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05708173459475</c:v>
+                  <c:v>0.060012378119701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.052843184201283</c:v>
+                  <c:v>0.055607565813788</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.051140870061045</c:v>
+                  <c:v>0.049768836493768</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.044842061117757</c:v>
+                  <c:v>0.048129464381569</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.044412123296976</c:v>
+                  <c:v>0.048014111675626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.035623030103937</c:v>
+                  <c:v>0.039834271447787</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.034776065332343</c:v>
+                  <c:v>0.03940833365989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.033987995636497</c:v>
+                  <c:v>0.036918596065291</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.030437404660099</c:v>
+                  <c:v>0.034790085143883</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.029569030013189</c:v>
+                  <c:v>0.034052023614012</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.026362431321555</c:v>
+                  <c:v>0.02640681608664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.026009572839294</c:v>
+                  <c:v>0.022171817245874</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.025904262691744</c:v>
+                  <c:v>0.020965065092429</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02500457495046</c:v>
+                  <c:v>0.017904926316641</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.024833810518055</c:v>
+                  <c:v>0.015894191082612</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.023513893381404</c:v>
+                  <c:v>0.015509184528179</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.022524209216045</c:v>
+                  <c:v>0.015211539473307</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.021652633342143</c:v>
+                  <c:v>0.014328201133119</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.016321959999715</c:v>
+                  <c:v>0.013627594100795</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.011774303992471</c:v>
+                  <c:v>0.013100458774938</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.011712418916204</c:v>
+                  <c:v>0.009771889326081</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.008615304564256</c:v>
+                  <c:v>0.009597413026456</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.007284062106111</c:v>
+                  <c:v>0.009099291521069</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00722596178238</c:v>
+                  <c:v>0.008236774401618</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.006505815852845</c:v>
+                  <c:v>0.007960454987921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3173,11 +3175,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="31481734"/>
-        <c:axId val="43900813"/>
+        <c:axId val="43291051"/>
+        <c:axId val="83711588"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31481734"/>
+        <c:axId val="43291051"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3205,7 +3207,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43900813"/>
+        <c:crossAx val="83711588"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3213,7 +3215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43900813"/>
+        <c:axId val="83711588"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,7 +3230,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3250,7 +3252,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31481734"/>
+        <c:crossAx val="43291051"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3270,14 +3272,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3312,6 +3314,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3322,191 +3325,191 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Correctness &amp; Verifiability'!$A$1:$A$29</c:f>
+              <c:f>Reliability!$A$1:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>OHIF Viewer</c:v>
+                  <c:v>ImageJ</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3D Slicer</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ImageJ</c:v>
+                  <c:v>Fiji</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>OsiriX Lite</c:v>
+                  <c:v>SMILI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Papaya</c:v>
+                  <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>medInria</c:v>
+                  <c:v>Slice:Drop</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ParaView</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>BioImage Suite Web</c:v>
+                  <c:v>MatrixUser</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Fiji</c:v>
+                  <c:v>dwv</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Gwyddion</c:v>
+                  <c:v>MRIcroGL</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>DicomBrowser</c:v>
+                  <c:v>MicroView</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Horos</c:v>
+                  <c:v>AMIDE</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Weasis</c:v>
+                  <c:v>INVESALIUS 3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>MRIcroGL</c:v>
+                  <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>XMedCon</c:v>
+                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>SMILI</c:v>
+                  <c:v>Weasis</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>3DimViewer</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Horos</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>dicompyler</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>INVESALIUS 3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>AMIDE</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3DimViewer</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>ITK-SNAP</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>dwv</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>MicroView</c:v>
+                  <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>BioImage Suite Web</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Papaya</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Drishti</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>DICOM Viewer</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>GATE</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>DICOM Viewer</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>MatrixUser</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Drishti</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Slice:Drop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Correctness &amp; Verifiability'!$B$1:$B$29</c:f>
+              <c:f>Reliability!$B$1:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.105348529428444</c:v>
+                  <c:v>0.093666033477772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.091756799513988</c:v>
+                  <c:v>0.080273880248556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.071707207511665</c:v>
+                  <c:v>0.068219277390311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.064866180032911</c:v>
+                  <c:v>0.064449339923628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.060012378119701</c:v>
+                  <c:v>0.062203537327136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.055607565813788</c:v>
+                  <c:v>0.040598904839344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.049768836493768</c:v>
+                  <c:v>0.036352721406907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.048129464381569</c:v>
+                  <c:v>0.035868881632545</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.048014111675626</c:v>
+                  <c:v>0.035617766799374</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.039834271447787</c:v>
+                  <c:v>0.035452105019217</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.03940833365989</c:v>
+                  <c:v>0.031588271369958</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.036918596065291</c:v>
+                  <c:v>0.031175177368103</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.034790085143883</c:v>
+                  <c:v>0.03087007646131</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.034052023614012</c:v>
+                  <c:v>0.030624431143441</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.02640681608664</c:v>
+                  <c:v>0.029720582226684</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.022171817245874</c:v>
+                  <c:v>0.029405771598589</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.020965065092429</c:v>
+                  <c:v>0.02884469651111</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.017904926316641</c:v>
+                  <c:v>0.028420775813248</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.015894191082612</c:v>
+                  <c:v>0.02777860650915</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.015509184528179</c:v>
+                  <c:v>0.027752928423081</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.015211539473307</c:v>
+                  <c:v>0.023367882665185</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.014328201133119</c:v>
+                  <c:v>0.022935740921226</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.013627594100795</c:v>
+                  <c:v>0.022531312675494</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.013100458774938</c:v>
+                  <c:v>0.021135762164057</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.009771889326081</c:v>
+                  <c:v>0.020563865739677</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.009597413026456</c:v>
+                  <c:v>0.02040442372888</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.009099291521069</c:v>
+                  <c:v>0.007313337401393</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.008236774401618</c:v>
+                  <c:v>0.006481657853608</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.007960454987921</c:v>
+                  <c:v>0.006382251361017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3514,11 +3517,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="62754390"/>
-        <c:axId val="21210299"/>
+        <c:axId val="23614101"/>
+        <c:axId val="11422634"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62754390"/>
+        <c:axId val="23614101"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,7 +3549,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21210299"/>
+        <c:crossAx val="11422634"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3554,7 +3557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21210299"/>
+        <c:axId val="11422634"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3569,7 +3572,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3591,7 +3594,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62754390"/>
+        <c:crossAx val="23614101"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3611,14 +3614,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3653,6 +3656,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3663,191 +3667,191 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reliability!$A$1:$A$29</c:f>
+              <c:f>Robustness!$A$1:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>SMILI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3DimViewer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MicroView</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Papaya</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BioImage Suite Web</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Fiji</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ITK-SNAP</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ImageJ</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3D Slicer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fiji</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SMILI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>OHIF Viewer</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Slice:Drop</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>ParaView</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MatrixUser</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>dwv</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>MRIcroGL</c:v>
+                  <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>MicroView</c:v>
+                  <c:v>INVESALIUS 3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>AMIDE</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>INVESALIUS 3</c:v>
+                  <c:v>medInria</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>dicompyler</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3D Slicer</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ParaView</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>XMedCon</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
+                  <c:v>Horos</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Gwyddion</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>Weasis</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3DimViewer</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Horos</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>medInria</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>dicompyler</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>OsiriX Lite</c:v>
+                  <c:v>DICOM Viewer</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>ITK-SNAP</c:v>
+                  <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>DicomBrowser</c:v>
+                  <c:v>MatrixUser</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>BioImage Suite Web</c:v>
+                  <c:v>GATE</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Papaya</c:v>
+                  <c:v>dwv</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>Slice:Drop</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>MRIcroGL</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>Drishti</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>DICOM Viewer</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>GATE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reliability!$B$1:$B$29</c:f>
+              <c:f>Robustness!$B$1:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.093666033477772</c:v>
+                  <c:v>0.058831297098991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.080273880248556</c:v>
+                  <c:v>0.058525645061123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.068219277390311</c:v>
+                  <c:v>0.057107409568359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.064449339923628</c:v>
+                  <c:v>0.055138124558734</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.062203537327136</c:v>
+                  <c:v>0.05112212201548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.040598904839344</c:v>
+                  <c:v>0.049527650205596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.036352721406907</c:v>
+                  <c:v>0.048081625986722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.035868881632545</c:v>
+                  <c:v>0.048046560901628</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.035617766799374</c:v>
+                  <c:v>0.047327413486712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.035452105019217</c:v>
+                  <c:v>0.047167357417905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.031588271369958</c:v>
+                  <c:v>0.045555915861254</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.031175177368103</c:v>
+                  <c:v>0.042556884983299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.03087007646131</c:v>
+                  <c:v>0.042044938065819</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.030624431143441</c:v>
+                  <c:v>0.040843444196641</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.029720582226684</c:v>
+                  <c:v>0.039305832074151</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.029405771598589</c:v>
+                  <c:v>0.037737814739038</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.02884469651111</c:v>
+                  <c:v>0.036392234634204</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.028420775813248</c:v>
+                  <c:v>0.034988294650501</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.02777860650915</c:v>
+                  <c:v>0.033511462691393</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.027752928423081</c:v>
+                  <c:v>0.033341992125147</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.023367882665185</c:v>
+                  <c:v>0.03309121946581</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.022935740921226</c:v>
+                  <c:v>0.012048849304657</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.022531312675494</c:v>
+                  <c:v>0.009994823488857</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.021135762164057</c:v>
+                  <c:v>0.006914189205797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.020563865739677</c:v>
+                  <c:v>0.006671801894485</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.02040442372888</c:v>
+                  <c:v>0.006610928234244</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.007313337401393</c:v>
+                  <c:v>0.006261814762101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.006481657853608</c:v>
+                  <c:v>0.005921930881296</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.006382251361017</c:v>
+                  <c:v>0.005330422440059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3855,11 +3859,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="80646968"/>
-        <c:axId val="93018226"/>
+        <c:axId val="81548853"/>
+        <c:axId val="84872529"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80646968"/>
+        <c:axId val="81548853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3887,7 +3891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93018226"/>
+        <c:crossAx val="84872529"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3895,7 +3899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93018226"/>
+        <c:axId val="84872529"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3910,7 +3914,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3932,7 +3936,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80646968"/>
+        <c:crossAx val="81548853"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3952,14 +3956,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3994,6 +3998,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4004,191 +4009,191 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Robustness!$A$1:$A$29</c:f>
+              <c:f>Usability!$A$1:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>3D Slicer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ImageJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fiji</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OHIF Viewer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>INVESALIUS 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ParaView</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ginkgo CADx</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BioImage Suite Web</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MicroView</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>SMILI</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3DimViewer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ITK-SNAP</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Papaya</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>OsiriX Lite</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BioImage Suite Web</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Fiji</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ITK-SNAP</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ImageJ</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
+                  <c:v>MRIcroGL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Horos</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>AMIDE</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Slice:Drop</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XMedCon</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>MatrixUser</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>DicomBrowser</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>INVESALIUS 3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>AMIDE</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>medInria</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Ginkgo CADx</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
+                  <c:v>Drishti</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>dicompyler</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Weasis</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3D Slicer</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ParaView</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>XMedCon</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Horos</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Gwyddion</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DICOM Viewer</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>OHIF Viewer</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>MatrixUser</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>GATE</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>dwv</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Slice:Drop</c:v>
+                  <c:v>3DimViewer</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>MRIcroGL</c:v>
+                  <c:v>DICOM Viewer</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Drishti</c:v>
+                  <c:v>GATE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Robustness!$B$1:$B$29</c:f>
+              <c:f>Usability!$B$1:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.058831297098991</c:v>
+                  <c:v>0.078927672773069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.058525645061123</c:v>
+                  <c:v>0.07838885587193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.057107409568359</c:v>
+                  <c:v>0.076076484414165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.055138124558734</c:v>
+                  <c:v>0.06912197769678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05112212201548</c:v>
+                  <c:v>0.063029546935328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.049527650205596</c:v>
+                  <c:v>0.05321955843058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.048081625986722</c:v>
+                  <c:v>0.048674028289121</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.048046560901628</c:v>
+                  <c:v>0.0435493350081</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.047327413486712</c:v>
+                  <c:v>0.039184942390971</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.047167357417905</c:v>
+                  <c:v>0.038400868164487</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.045555915861254</c:v>
+                  <c:v>0.037971282374854</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.042556884983299</c:v>
+                  <c:v>0.034644013205869</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.042044938065819</c:v>
+                  <c:v>0.032927423312378</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.040843444196641</c:v>
+                  <c:v>0.03159265848666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.039305832074151</c:v>
+                  <c:v>0.030648238830022</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.037737814739038</c:v>
+                  <c:v>0.02880041611189</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.036392234634204</c:v>
+                  <c:v>0.026624821463133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.034988294650501</c:v>
+                  <c:v>0.026497319090505</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.033511462691393</c:v>
+                  <c:v>0.021353152555967</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.033341992125147</c:v>
+                  <c:v>0.018338843883817</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.03309121946581</c:v>
+                  <c:v>0.017629997489596</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.012048849304657</c:v>
+                  <c:v>0.016736686476317</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.009994823488857</c:v>
+                  <c:v>0.016664570977996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.006914189205797</c:v>
+                  <c:v>0.016253172332893</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.006671801894485</c:v>
+                  <c:v>0.014621031395452</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.006610928234244</c:v>
+                  <c:v>0.014039511827619</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.006261814762101</c:v>
+                  <c:v>0.011854508870798</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.005921930881296</c:v>
+                  <c:v>0.008677825187075</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.005330422440059</c:v>
+                  <c:v>0.005551256152628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4196,11 +4201,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="18064193"/>
-        <c:axId val="16773717"/>
+        <c:axId val="46350837"/>
+        <c:axId val="83389294"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="18064193"/>
+        <c:axId val="46350837"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4228,7 +4233,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16773717"/>
+        <c:crossAx val="83389294"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4236,7 +4241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16773717"/>
+        <c:axId val="83389294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4251,7 +4256,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4273,7 +4278,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18064193"/>
+        <c:crossAx val="46350837"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4293,14 +4298,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4335,6 +4340,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4345,7 +4351,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Usability!$A$1:$A$29</c:f>
+              <c:f>Maintainability!$A$1:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -4355,181 +4361,181 @@
                   <c:v>ImageJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Fiji</c:v>
+                  <c:v>Weasis</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>INVESALIUS 3</c:v>
+                  <c:v>Fiji</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>ParaView</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Gwyddion</c:v>
+                  <c:v>medInria</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>ITK-SNAP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>INVESALIUS 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>dwv</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>BioImage Suite Web</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>GATE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Horos</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Papaya</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MicroView</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>BioImage Suite Web</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
                   <c:v>SMILI</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>medInria</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>ITK-SNAP</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
+                  <c:v>MRIcroGL</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>OsiriX Lite</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Papaya</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>MRIcroGL</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Horos</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Weasis</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>AMIDE</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>Slice:Drop</c:v>
+                  <c:v>3DimViewer</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>DicomBrowser</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Drishti</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>MatrixUser</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>DicomBrowser</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Drishti</c:v>
-                </c:pt>
                 <c:pt idx="24">
+                  <c:v>AMIDE</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>dicompyler</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>dwv</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3DimViewer</c:v>
-                </c:pt>
                 <c:pt idx="27">
+                  <c:v>Slice:Drop</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>DICOM Viewer</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>GATE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Usability!$B$1:$B$29</c:f>
+              <c:f>Maintainability!$B$1:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.078927672773069</c:v>
+                  <c:v>0.012003140241968</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.07838885587193</c:v>
+                  <c:v>0.008649766002991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.076076484414165</c:v>
+                  <c:v>0.008536521057152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06912197769678</c:v>
+                  <c:v>0.008070316845122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.063029546935328</c:v>
+                  <c:v>0.00738639270377</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05321955843058</c:v>
+                  <c:v>0.006393150913425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.048674028289121</c:v>
+                  <c:v>0.005874269119448</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0435493350081</c:v>
+                  <c:v>0.004877972263608</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.039184942390971</c:v>
+                  <c:v>0.004526991414819</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.038400868164487</c:v>
+                  <c:v>0.004105057495601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.037971282374854</c:v>
+                  <c:v>0.003993214448657</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.034644013205869</c:v>
+                  <c:v>0.003956900450265</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.032927423312378</c:v>
+                  <c:v>0.003678451011629</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.03159265848666</c:v>
+                  <c:v>0.003418646529607</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.030648238830022</c:v>
+                  <c:v>0.003359515611924</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.02880041611189</c:v>
+                  <c:v>0.002761849066697</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.026624821463133</c:v>
+                  <c:v>0.002754130818816</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.026497319090505</c:v>
+                  <c:v>0.002685852537286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.021353152555967</c:v>
+                  <c:v>0.002385500924686</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.018338843883817</c:v>
+                  <c:v>0.001674017755082</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.017629997489596</c:v>
+                  <c:v>0.001457547491935</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.016736686476317</c:v>
+                  <c:v>0.001416206372331</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.016664570977996</c:v>
+                  <c:v>0.001251017424327</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.016253172332893</c:v>
+                  <c:v>0.001113634833004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.014621031395452</c:v>
+                  <c:v>0.001063784135254</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.014039511827619</c:v>
+                  <c:v>0.001031410320711</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.011854508870798</c:v>
+                  <c:v>0.00092493106705</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.008677825187075</c:v>
+                  <c:v>0.000898891642548</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.005551256152628</c:v>
+                  <c:v>0.0008620306114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4537,11 +4543,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="69906639"/>
-        <c:axId val="14577153"/>
+        <c:axId val="11305369"/>
+        <c:axId val="79591902"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69906639"/>
+        <c:axId val="11305369"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4569,7 +4575,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14577153"/>
+        <c:crossAx val="79591902"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4577,7 +4583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14577153"/>
+        <c:axId val="79591902"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4592,7 +4598,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4614,7 +4620,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69906639"/>
+        <c:crossAx val="11305369"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4634,14 +4640,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4676,6 +4682,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4686,191 +4693,191 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Maintainability!$A$1:$A$29</c:f>
+              <c:f>Reusability!$A$1:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>ImageJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3D Slicer</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>ImageJ</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>ParaView</c:v>
+                  <c:v>Fiji</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Weasis</c:v>
+                  <c:v>ParaView</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>dwv</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SMILI</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>GATE</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>ITK-SNAP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Horos</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>medInria</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Drishti</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>DICOM Viewer</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>INVESALIUS 3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>dwv</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ITK-SNAP</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Fiji</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
+                  <c:v>Ginkgo CADx</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>MRIcroGL</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>Horos</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>SMILI</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
+                  <c:v>XMedCon</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>MicroView</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MatrixUser</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>Papaya</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>Ginkgo CADx</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3DimViewer</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>OsiriX Lite</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Drishti</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>MatrixUser</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>XMedCon</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>DicomBrowser</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>DICOM Viewer</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>Slice:Drop</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>3DimViewer</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>AMIDE</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>dicompyler</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Gwyddion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Maintainability!$B$1:$B$29</c:f>
+              <c:f>Reusability!$B$1:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.111208564150866</c:v>
+                  <c:v>0.090096125414076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.081373537172824</c:v>
+                  <c:v>0.078982138151358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.075132790439739</c:v>
+                  <c:v>0.071628353191058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.073691454723551</c:v>
+                  <c:v>0.069237826450574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0670970949121</c:v>
+                  <c:v>0.058253229676763</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.056400300287419</c:v>
+                  <c:v>0.057984039973476</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.043406175258573</c:v>
+                  <c:v>0.054946647186877</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.04242215335926</c:v>
+                  <c:v>0.053538469265407</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.040936075955994</c:v>
+                  <c:v>0.046334674921034</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.039735988124294</c:v>
+                  <c:v>0.038071592934346</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.03846408615066</c:v>
+                  <c:v>0.03642963849015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.038461053338337</c:v>
+                  <c:v>0.03465610760295</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.029990841564508</c:v>
+                  <c:v>0.024907018904141</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.029959960642799</c:v>
+                  <c:v>0.024464122771134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.026691213113786</c:v>
+                  <c:v>0.023812194241013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.026378943701897</c:v>
+                  <c:v>0.022829854887943</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.025409003919532</c:v>
+                  <c:v>0.021350074366069</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.024723014449366</c:v>
+                  <c:v>0.021287785622696</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.021761374106006</c:v>
+                  <c:v>0.018779772980777</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.017371257661726</c:v>
+                  <c:v>0.017579271680151</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.014942364749043</c:v>
+                  <c:v>0.017313266154351</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.013251366378604</c:v>
+                  <c:v>0.016388214911352</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.011734729619289</c:v>
+                  <c:v>0.016190747502871</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.011701642762061</c:v>
+                  <c:v>0.015876403070282</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.008416546741118</c:v>
+                  <c:v>0.015845764060073</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.008366175960128</c:v>
+                  <c:v>0.015412160604796</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.008176697729194</c:v>
+                  <c:v>0.01476967336852</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00807425253512</c:v>
+                  <c:v>0.01446824236088</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.004721340492209</c:v>
+                  <c:v>0.008566589254884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4878,11 +4885,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="59636065"/>
-        <c:axId val="46454226"/>
+        <c:axId val="26712757"/>
+        <c:axId val="99457258"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59636065"/>
+        <c:axId val="26712757"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4910,7 +4917,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46454226"/>
+        <c:crossAx val="99457258"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4918,7 +4925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46454226"/>
+        <c:axId val="99457258"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4933,7 +4940,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4955,7 +4962,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59636065"/>
+        <c:crossAx val="26712757"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4975,14 +4982,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5017,6 +5024,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5027,7 +5035,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reusability!$A$1:$A$29</c:f>
+              <c:f>Understandability!$A$1:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -5037,181 +5045,181 @@
                   <c:v>3D Slicer</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>ParaView</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GATE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Drishti</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OHIF Viewer</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ITK-SNAP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Horos</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Fiji</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>OHIF Viewer</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ParaView</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BioImage Suite Web</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
+                  <c:v>INVESALIUS 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>dwv</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMILI</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>GATE</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ITK-SNAP</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Horos</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>medInria</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Weasis</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Drishti</c:v>
+                  <c:v>medInria</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>OsiriX Lite</c:v>
+                  <c:v>AMIDE</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>DICOM Viewer</c:v>
+                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>INVESALIUS 3</c:v>
+                  <c:v>MRIcroGL</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>MicroView</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>Gwyddion</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>MRIcroGL</c:v>
+                  <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>XMedCon</c:v>
+                  <c:v>Slice:Drop</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>MicroView</c:v>
+                  <c:v>MatrixUser</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>MatrixUser</c:v>
+                  <c:v>3DimViewer</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Papaya</c:v>
+                  <c:v>BioImage Suite Web</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Slice:Drop</c:v>
+                  <c:v>SMILI</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3DimViewer</c:v>
+                  <c:v>dicompyler</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>AMIDE</c:v>
+                  <c:v>DICOM Viewer</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>dicompyler</c:v>
+                  <c:v>Papaya</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reusability!$B$1:$B$29</c:f>
+              <c:f>Understandability!$B$1:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.090096125414076</c:v>
+                  <c:v>0.073415651527306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.078982138151358</c:v>
+                  <c:v>0.070052613797654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.071628353191058</c:v>
+                  <c:v>0.058573119558245</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.069237826450574</c:v>
+                  <c:v>0.057724371735422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.058253229676763</c:v>
+                  <c:v>0.05592545089873</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.057984039973476</c:v>
+                  <c:v>0.053653553849096</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.054946647186877</c:v>
+                  <c:v>0.052465145611822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.053538469265407</c:v>
+                  <c:v>0.048221707957468</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.046334674921034</c:v>
+                  <c:v>0.047183294050596</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.038071592934346</c:v>
+                  <c:v>0.046541224335632</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.03642963849015</c:v>
+                  <c:v>0.046525887150695</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.03465610760295</c:v>
+                  <c:v>0.045508749885371</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.024907018904141</c:v>
+                  <c:v>0.03645941880977</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.024464122771134</c:v>
+                  <c:v>0.032408625344459</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.023812194241013</c:v>
+                  <c:v>0.028626491091521</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.022829854887943</c:v>
+                  <c:v>0.024606953765649</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.021350074366069</c:v>
+                  <c:v>0.024030514540251</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.021287785622696</c:v>
+                  <c:v>0.022018954874707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.018779772980777</c:v>
+                  <c:v>0.020985485453231</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.017579271680151</c:v>
+                  <c:v>0.018288521467022</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.017313266154351</c:v>
+                  <c:v>0.017376257140601</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.016388214911352</c:v>
+                  <c:v>0.016815314829618</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.016190747502871</c:v>
+                  <c:v>0.01655391028625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.015876403070282</c:v>
+                  <c:v>0.015631478846691</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.015845764060073</c:v>
+                  <c:v>0.015412600741749</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.015412160604796</c:v>
+                  <c:v>0.014986629524184</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.01476967336852</c:v>
+                  <c:v>0.014848538640697</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.01446824236088</c:v>
+                  <c:v>0.012823440015066</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.008566589254884</c:v>
+                  <c:v>0.012336094270497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5219,11 +5227,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="56635440"/>
-        <c:axId val="78830180"/>
+        <c:axId val="25843120"/>
+        <c:axId val="81681330"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56635440"/>
+        <c:axId val="25843120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5251,7 +5259,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78830180"/>
+        <c:crossAx val="81681330"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5259,7 +5267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78830180"/>
+        <c:axId val="81681330"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5274,7 +5282,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5296,7 +5304,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56635440"/>
+        <c:crossAx val="25843120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5316,14 +5324,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5358,6 +5366,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5368,191 +5377,191 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Understandability!$A$1:$A$29</c:f>
+              <c:f>'Visibility &amp; Transparency'!$A$1:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>3D Slicer</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ImageJ</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3D Slicer</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>Fiji</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MRIcroGL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ParaView</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>OsiriX Lite</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GATE</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Drishti</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>DICOM Viewer</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SMILI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Drishti</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>INVESALIUS 3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GATE</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MicroView</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MatrixUser</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>BioImage Suite Web</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>ITK-SNAP</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="18">
                   <c:v>Horos</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Fiji</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>INVESALIUS 3</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>dwv</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Weasis</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>medInria</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ginkgo CADx</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Papaya</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Slice:Drop</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>AMIDE</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gwyddion</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>MRIcroGL</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Ginkgo CADx</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>XMedCon</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Slice:Drop</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>MatrixUser</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3DimViewer</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>BioImage Suite Web</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>DicomBrowser</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>SMILI</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>dicompyler</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>DICOM Viewer</c:v>
+                  <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Papaya</c:v>
+                  <c:v>3DimViewer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Understandability!$B$1:$B$29</c:f>
+              <c:f>'Visibility &amp; Transparency'!$B$1:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.073415651527306</c:v>
+                  <c:v>0.119642477596722</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.070052613797654</c:v>
+                  <c:v>0.111245140812967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.058573119558245</c:v>
+                  <c:v>0.087905973568946</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.057724371735422</c:v>
+                  <c:v>0.061412252636368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05592545089873</c:v>
+                  <c:v>0.060925920885528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.053653553849096</c:v>
+                  <c:v>0.049057239970101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.052465145611822</c:v>
+                  <c:v>0.044966260643932</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.048221707957468</c:v>
+                  <c:v>0.039167918723596</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.047183294050596</c:v>
+                  <c:v>0.03230960639619</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.046541224335632</c:v>
+                  <c:v>0.031517045167171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.046525887150695</c:v>
+                  <c:v>0.027984544737997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.045508749885371</c:v>
+                  <c:v>0.027071367472617</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.03645941880977</c:v>
+                  <c:v>0.027042723127141</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.032408625344459</c:v>
+                  <c:v>0.026814927299615</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.028626491091521</c:v>
+                  <c:v>0.021947982916626</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.024606953765649</c:v>
+                  <c:v>0.021289391893076</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.024030514540251</c:v>
+                  <c:v>0.020749890561298</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.022018954874707</c:v>
+                  <c:v>0.020129038972496</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.020985485453231</c:v>
+                  <c:v>0.019148094226871</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.018288521467022</c:v>
+                  <c:v>0.0181906631702</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.017376257140601</c:v>
+                  <c:v>0.01792643196933</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.016815314829618</c:v>
+                  <c:v>0.017585390793097</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.01655391028625</c:v>
+                  <c:v>0.017128622520416</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.015631478846691</c:v>
+                  <c:v>0.015279658352717</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.015412600741749</c:v>
+                  <c:v>0.015011008796529</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.014986629524184</c:v>
+                  <c:v>0.013494910326535</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.014848538640697</c:v>
+                  <c:v>0.011814396310187</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.012823440015066</c:v>
+                  <c:v>0.011679525708987</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.012336094270497</c:v>
+                  <c:v>0.011561594442748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5560,11 +5569,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="93381560"/>
-        <c:axId val="14415906"/>
+        <c:axId val="33441015"/>
+        <c:axId val="20214280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93381560"/>
+        <c:axId val="33441015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5592,7 +5601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14415906"/>
+        <c:crossAx val="20214280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5600,7 +5609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14415906"/>
+        <c:axId val="20214280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5615,7 +5624,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5637,7 +5646,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93381560"/>
+        <c:crossAx val="33441015"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5657,7 +5666,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -5669,15 +5678,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>563040</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:colOff>900360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>78840</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:colOff>735840</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5685,8 +5694,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3633840" y="730080"/>
-        <a:ext cx="9000000" cy="5400000"/>
+        <a:off x="3970440" y="3905640"/>
+        <a:ext cx="9319680" cy="5399280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5710,9 +5719,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>470160</xdr:colOff>
+      <xdr:colOff>469440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5721,7 +5730,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3481560" y="0"/>
-        <a:ext cx="9000000" cy="5400000"/>
+        <a:ext cx="9027360" cy="5399280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5745,9 +5754,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
+      <xdr:colOff>375840</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5756,7 +5765,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3387960" y="136080"/>
-        <a:ext cx="9000000" cy="5400000"/>
+        <a:ext cx="9027360" cy="5399280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5780,9 +5789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
+      <xdr:colOff>530280</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5791,7 +5800,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3542400" y="167040"/>
-        <a:ext cx="9000000" cy="5400000"/>
+        <a:ext cx="9027360" cy="5399280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5815,9 +5824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>546480</xdr:colOff>
+      <xdr:colOff>545760</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5826,7 +5835,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3557880" y="254160"/>
-        <a:ext cx="9000000" cy="5400000"/>
+        <a:ext cx="9027360" cy="5399280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5850,9 +5859,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>515520</xdr:colOff>
+      <xdr:colOff>514800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5861,7 +5870,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3526920" y="237960"/>
-        <a:ext cx="9000000" cy="5400000"/>
+        <a:ext cx="9027360" cy="5399280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5885,9 +5894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5896,7 +5905,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3780000" y="0"/>
-        <a:ext cx="9000000" cy="5400000"/>
+        <a:ext cx="9027360" cy="5399280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5920,9 +5929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>668880</xdr:colOff>
+      <xdr:colOff>668160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5931,7 +5940,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3680280" y="0"/>
-        <a:ext cx="9000000" cy="5400000"/>
+        <a:ext cx="9027360" cy="5399280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5955,9 +5964,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>285840</xdr:colOff>
+      <xdr:colOff>285120</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5966,7 +5975,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3297240" y="55440"/>
-        <a:ext cx="9000000" cy="5400000"/>
+        <a:ext cx="9027360" cy="5399280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5990,9 +5999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>178560</xdr:colOff>
+      <xdr:colOff>177840</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6001,7 +6010,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3189960" y="0"/>
-        <a:ext cx="9000000" cy="5400000"/>
+        <a:ext cx="9027360" cy="5399280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6019,10 +6028,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6032,7 +6041,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="28.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="2" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="11" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6066,41 +6075,50 @@
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.010903902889205</v>
+        <v>0.011880425476822</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.010903902889205</v>
+        <v>0.009107502081149</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.008919320027617</v>
+        <v>0.008858344911054</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.010195199945999</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.00876974141923</v>
+        <v>0.007574761299083</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.008919320027617</v>
+        <v>0.012003140241968</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.008775793127929</v>
+        <v>0.008876770890413</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.004043581626023</v>
+        <v>0.008790711736114</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.013293608621858</v>
+        <v>0.01299500937249</v>
       </c>
       <c r="L2" s="2" t="n">
         <f aca="false">SUM(B2:J2)</f>
-        <v>0.084724370574683</v>
+        <v>0.085065253720098</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6108,35 +6126,35 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.005871464911254</v>
+        <v>0.001996329427782</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.005871464911254</v>
+        <v>0.009107502081149</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.003402714571493</v>
+        <v>0.008858344911054</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.003783558179335</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.0048388150009</v>
+        <v>0.007574761299083</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.003402714571493</v>
+        <v>0.008649766002991</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.002365309513633</v>
+        <v>0.008876770890413</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.004538160466293</v>
+        <v>0.008790711736114</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.001953932310344</v>
+        <v>0.01299500937249</v>
       </c>
       <c r="L3" s="2" t="n">
         <f aca="false">SUM(B3:J3)</f>
-        <v>0.036028134435999</v>
+        <v>0.071827783432081</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6144,35 +6162,35 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.005682318895672</v>
+        <v>0.001996329427782</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.005682318895672</v>
+        <v>0.006093012196034</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.003302286914076</v>
+        <v>0.008858344911054</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.002463535249542</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.001958888609955</v>
+        <v>0.007574761299083</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.003302286914076</v>
+        <v>0.00738639270377</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.001923696239372</v>
+        <v>0.008876770890413</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.003723495854599</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.001297725078776</v>
+        <v>0.00972014390414</v>
       </c>
       <c r="L4" s="2" t="n">
         <f aca="false">SUM(B4:J4)</f>
-        <v>0.02933655265174</v>
+        <v>0.060782584871695</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6180,35 +6198,35 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.003864007259149</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.003864007259149</v>
+        <v>0.012616067188489</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.003204966279012</v>
+        <v>0.005676956348873</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.003865565015987</v>
+        <v>0.001227048417644</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.002944146565612</v>
+        <v>0.007574761299083</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.003204966279012</v>
+        <v>0.008070316845122</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.002767446544905</v>
+        <v>0.008876770890413</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.00419309052656</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.006769546765059</v>
+        <v>0.004538845215916</v>
       </c>
       <c r="L5" s="2" t="n">
         <f aca="false">SUM(B5:J5)</f>
-        <v>0.034677742494445</v>
+        <v>0.057094032735602</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6216,35 +6234,35 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.002878251410194</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.002878251410194</v>
+        <v>0.006093012196034</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.003939122779913</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.002934090676293</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.003200046234654</v>
+        <v>0.007574761299083</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.003939122779913</v>
+        <v>0.006393150913425</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.001953252408906</v>
+        <v>0.005721141311357</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.000657992320144</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.006823583626263</v>
+        <v>0.004538845215916</v>
       </c>
       <c r="L6" s="2" t="n">
         <f aca="false">SUM(B6:J6)</f>
-        <v>0.029203713646474</v>
+        <v>0.046917592382262</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6252,35 +6270,35 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.002778286105607</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.002778286105607</v>
+        <v>0.003936177265735</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.007161037769292</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.002329451676937</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.004219031374984</v>
+        <v>0.002753185493444</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.007161037769292</v>
+        <v>0.008536521057152</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.005948718807267</v>
+        <v>0.003460689351617</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.006536810788777</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.003501893907463</v>
+        <v>0.006929139075616</v>
       </c>
       <c r="L7" s="2" t="n">
         <f aca="false">SUM(B7:J7)</f>
-        <v>0.042414554305226</v>
+        <v>0.042212393690011</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6288,35 +6306,35 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.001813551111079</v>
+        <v>0.008334707360577</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.001813551111079</v>
+        <v>0.006093012196034</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.010407337053086</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.007967467501296</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.008709872874659</v>
+        <v>0.004590962249284</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.010407337053086</v>
+        <v>0.003993214448657</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.010010680601564</v>
+        <v>0.005721141311357</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.005258601498524</v>
+        <v>0.001721053265594</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.012360571201441</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L8" s="2" t="n">
         <f aca="false">SUM(B8:J8)</f>
-        <v>0.068748970005814</v>
+        <v>0.041164019757178</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6324,35 +6342,35 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.002405848149127</v>
+        <v>0.005386716562362</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.002405848149127</v>
+        <v>0.006093012196034</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.007579919710035</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.005334901297292</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.008452942712685</v>
+        <v>0.004590962249284</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.007579919710035</v>
+        <v>0.005874269119448</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.007958705910118</v>
+        <v>0.003460689351617</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.005342402887414</v>
+        <v>0.003006415811732</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.00976733039655</v>
+        <v>0.004538845215916</v>
       </c>
       <c r="L9" s="2" t="n">
         <f aca="false">SUM(B9:J9)</f>
-        <v>0.056827818922383</v>
+        <v>0.041034325422778</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6360,35 +6378,35 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.003958114455993</v>
+        <v>0.008334707360577</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.003958114455993</v>
+        <v>0.001604043270523</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.002348418018229</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.004378703739988</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.001851618997555</v>
+        <v>0.007574761299083</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.002348418018229</v>
+        <v>0.004526991414819</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.001760640451119</v>
+        <v>0.001949171470009</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.005240817490878</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.001499434480726</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L10" s="2" t="n">
         <f aca="false">SUM(B10:J10)</f>
-        <v>0.02734428010871</v>
+        <v>0.0399978455691</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6396,35 +6414,35 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.002502689912894</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.002502689912894</v>
+        <v>0.002547296380556</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.00315786397925</v>
+        <v>0.008858344911054</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.00169017105259</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.001317167652311</v>
+        <v>0.004590962249284</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.00315786397925</v>
+        <v>0.002754130818816</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.001641074818724</v>
+        <v>0.005721141311357</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.006502849451236</v>
+        <v>0.001721053265594</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.00128462160475</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L11" s="2" t="n">
         <f aca="false">SUM(B11:J11)</f>
-        <v>0.023756992363899</v>
+        <v>0.037013055358604</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6432,35 +6450,35 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.003381933851122</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.003381933851122</v>
+        <v>0.006093012196034</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.00308651183435</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.004102066229477</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.002958313495904</v>
+        <v>0.004590962249284</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.00308651183435</v>
+        <v>0.002385500924686</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.004047737610017</v>
+        <v>0.003460689351617</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.003704665791683</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.002127566025208</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L12" s="2" t="n">
         <f aca="false">SUM(B12:J12)</f>
-        <v>0.029877240523233</v>
+        <v>0.035753360177358</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6468,35 +6486,35 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.003776443959611</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.003776443959611</v>
+        <v>0.003936177265735</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.002548415657914</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.00720735333699</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.003510295387407</v>
+        <v>0.002753185493444</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.002548415657914</v>
+        <v>0.003678451011629</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.002645799360113</v>
+        <v>0.003460689351617</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.005680235779498</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003004747014127</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L13" s="2" t="n">
         <f aca="false">SUM(B13:J13)</f>
-        <v>0.034698150113185</v>
+        <v>0.033051698578162</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,35 +6522,35 @@
         <v>22</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.000809340234012</v>
+        <v>0.001365297442266</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.000809340234012</v>
+        <v>0.001604043270523</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.003957529644375</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.001514177122311</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.001559945758624</v>
+        <v>0.004590962249284</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0.003957529644375</v>
+        <v>0.004877972263608</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.006105183020764</v>
+        <v>0.003460689351617</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.000734547581583</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.002021184796689</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L14" s="2" t="n">
         <f aca="false">SUM(B14:J14)</f>
-        <v>0.021468778036745</v>
+        <v>0.031907135331387</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6540,35 +6558,35 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.001301379879578</v>
+        <v>0.005386716562362</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.001301379879578</v>
+        <v>0.003936177265735</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.000812593044599</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.000915197155735</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.001805908036988</v>
+        <v>0.004590962249284</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>0.000812593044599</v>
+        <v>0.002761849066697</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.002718235863459</v>
+        <v>0.001949171470009</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.000592269160007</v>
+        <v>0.003006415811732</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003109393859777</v>
+        <v>0.001483640166952</v>
       </c>
       <c r="L15" s="2" t="n">
         <f aca="false">SUM(B15:J15)</f>
-        <v>0.01336894992432</v>
+        <v>0.031198347509156</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6576,35 +6594,35 @@
         <v>24</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.00985678441764</v>
+        <v>0.005386716562362</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.00985678441764</v>
+        <v>0.003936177265735</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.002284873971075</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.005347718264619</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.004353882487886</v>
+        <v>0.004590962249284</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.002284873971075</v>
+        <v>0.001031410320711</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.006442671108164</v>
+        <v>0.001949171470009</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.005503072245066</v>
+        <v>0.003006415811732</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0023055433957</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L16" s="2" t="n">
         <f aca="false">SUM(B16:J16)</f>
-        <v>0.048236204278865</v>
+        <v>0.030610782605508</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6612,35 +6630,35 @@
         <v>25</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.002929159035728</v>
+        <v>0.005386716562362</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.002929159035728</v>
+        <v>0.001604043270523</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.00691150414746</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.011705392158716</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0.007680219744087</v>
+        <v>0.004590962249284</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.00691150414746</v>
+        <v>0.003359515611924</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.007693091827842</v>
+        <v>0.001949171470009</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.001110535943206</v>
+        <v>0.003006415811732</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004996251182659</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L17" s="2" t="n">
         <f aca="false">SUM(B17:J17)</f>
-        <v>0.052866817222886</v>
+        <v>0.030606753901509</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,35 +6666,35 @@
         <v>26</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.007422835596351</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.007422835596351</v>
+        <v>0.006093012196034</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.004510989426594</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.000884494998658</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0.002037649320424</v>
+        <v>0.002753185493444</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0.004510989426594</v>
+        <v>0.003418646529607</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.001712462289422</v>
+        <v>0.001949171470009</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.000695757195789</v>
+        <v>0.001721053265594</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.001697739816969</v>
+        <v>0.001483640166952</v>
       </c>
       <c r="L18" s="2" t="n">
         <f aca="false">SUM(B18:J18)</f>
-        <v>0.030895753667152</v>
+        <v>0.028717148739673</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6684,35 +6702,35 @@
         <v>27</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.000802884642487</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.000802884642487</v>
+        <v>0.002547296380556</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.000709139040113</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.001085765480676</v>
+        <v>0.000684445390785</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0.000616806239181</v>
+        <v>0.002753185493444</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0.000709139040113</v>
+        <v>0.002685852537286</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.005148297213448</v>
+        <v>0.001949171470009</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.000741311321609</v>
+        <v>0.003006415811732</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.002979436366624</v>
+        <v>0.006929139075616</v>
       </c>
       <c r="L19" s="2" t="n">
         <f aca="false">SUM(B19:J19)</f>
-        <v>0.013595663986738</v>
+        <v>0.026875358066456</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6720,35 +6738,35 @@
         <v>28</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.001308255999163</v>
+        <v>0.000739874355386</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.001308255999163</v>
+        <v>0.001604043270523</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.002503479186166</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.001592022348124</v>
+        <v>0.000684445390785</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0.003658602590264</v>
+        <v>0.00167154587665</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0.002503479186166</v>
+        <v>0.004105057495601</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.004230176992705</v>
+        <v>0.005721141311357</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.005338506766848</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.002236559885833</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L20" s="2" t="n">
         <f aca="false">SUM(B20:J20)</f>
-        <v>0.024679338954432</v>
+        <v>0.025555690743386</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6756,35 +6774,35 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.002759312279784</v>
+        <v>0.005386716562362</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.002759312279784</v>
+        <v>0.002547296380556</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.004039191267434</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.00552987072153</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0.005913284270064</v>
+        <v>0.00167154587665</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.004039191267434</v>
+        <v>0.001457547491935</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.006472581075196</v>
+        <v>0.001949171470009</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.0038875882945</v>
+        <v>0.001721053265594</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.005450804441122</v>
+        <v>0.001483640166952</v>
       </c>
       <c r="L21" s="2" t="n">
         <f aca="false">SUM(B21:J21)</f>
-        <v>0.040851135896848</v>
+        <v>0.024300386130443</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6792,35 +6810,35 @@
         <v>30</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.000957256062695</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.000957256062695</v>
+        <v>0.003936177265735</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.003985431292505</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.00101103239123</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0.001859631830702</v>
+        <v>0.00167154587665</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0.003985431292505</v>
+        <v>0.001416206372331</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.001798971944763</v>
+        <v>0.001949171470009</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.000768243245089</v>
+        <v>0.001721053265594</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.00236548798812</v>
+        <v>0.001483640166952</v>
       </c>
       <c r="L22" s="2" t="n">
         <f aca="false">SUM(B22:J22)</f>
-        <v>0.017688742110304</v>
+        <v>0.023476234035304</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6828,35 +6846,35 @@
         <v>31</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.000722868428094</v>
+        <v>0.008334707360577</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.000722868428094</v>
+        <v>0.001034177644024</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.000720184205956</v>
+        <v>0.005676956348873</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.001066379225162</v>
+        <v>0.000684445390785</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0.000964202798564</v>
+        <v>0.00167154587665</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.000720184205956</v>
+        <v>0.000898891642548</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.002536650543105</v>
+        <v>0.001949171470009</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.001338761033851</v>
+        <v>0.001721053265594</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.004351990969288</v>
+        <v>0.001483640166952</v>
       </c>
       <c r="L23" s="2" t="n">
         <f aca="false">SUM(B23:J23)</f>
-        <v>0.01314408983807</v>
+        <v>0.023454589166012</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6864,35 +6882,35 @@
         <v>32</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.007376619930964</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.007376619930964</v>
+        <v>0.001604043270523</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.003430008495701</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.001766021231401</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0.007003282992814</v>
+        <v>0.002753185493444</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0.003430008495701</v>
+        <v>0.001063784135254</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.002372230485119</v>
+        <v>0.001949171470009</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.005061768429028</v>
+        <v>0.003006415811732</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.00300792971918</v>
+        <v>0.001483640166952</v>
       </c>
       <c r="L24" s="2" t="n">
         <f aca="false">SUM(B24:J24)</f>
-        <v>0.040824489710872</v>
+        <v>0.023158679965947</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6900,35 +6918,35 @@
         <v>33</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.004934680366331</v>
+        <v>0.000739874355386</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.004934680366331</v>
+        <v>0.001034177644024</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.003083658713676</v>
+        <v>0.000742424887185</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.006178618423754</v>
+        <v>0.000684445390785</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.003849334800652</v>
+        <v>0.000675822484444</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0.003083658713676</v>
+        <v>0.003956900450265</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.00385067862255</v>
+        <v>0.005721141311357</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.004671659785091</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.003589956266243</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L25" s="2" t="n">
         <f aca="false">SUM(B25:J25)</f>
-        <v>0.038176926058304</v>
+        <v>0.02147954236115</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6936,35 +6954,35 @@
         <v>34</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.003285447779243</v>
+        <v>0.001996329427782</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.003285447779243</v>
+        <v>0.001604043270523</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.002596431407243</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.001989436257405</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>0.001624559043939</v>
+        <v>0.00167154587665</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0.002596431407243</v>
+        <v>0.001674017755082</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.000951843250543</v>
+        <v>0.001949171470009</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.004367314674906</v>
+        <v>0.001721053265594</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.001312710701132</v>
+        <v>0.001483640166952</v>
       </c>
       <c r="L26" s="2" t="n">
         <f aca="false">SUM(B26:J26)</f>
-        <v>0.022009622300897</v>
+        <v>0.020183216148977</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6972,35 +6990,35 @@
         <v>35</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.004982451235306</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.004982451235306</v>
+        <v>0.001604043270523</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.003509807929995</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.001455606530549</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>0.004266763129387</v>
+        <v>0.00167154587665</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>0.003509807929995</v>
+        <v>0.00092493106705</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.001820912767928</v>
+        <v>0.00089495577286</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.006345267729818</v>
+        <v>0.001721053265594</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.002438664768514</v>
+        <v>0.001483640166952</v>
       </c>
       <c r="L27" s="2" t="n">
         <f aca="false">SUM(B27:J27)</f>
-        <v>0.033311733256798</v>
+        <v>0.019598609037662</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7008,35 +7026,35 @@
         <v>36</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.002889952537699</v>
+        <v>0.001365297442266</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.002889952537699</v>
+        <v>0.001034177644024</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.002267158192098</v>
+        <v>0.000742424887185</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.0066680420133</v>
+        <v>0.000684445390785</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>0.003405359870002</v>
+        <v>0.00167154587665</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0.002267158192098</v>
+        <v>0.001251017424327</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.001764044785587</v>
+        <v>0.003460689351617</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.006126458284304</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.001903180280046</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L28" s="2" t="n">
         <f aca="false">SUM(B28:J28)</f>
-        <v>0.030181306692833</v>
+        <v>0.018134353854558</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7044,35 +7062,35 @@
         <v>37</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.002612654820156</v>
+        <v>0.000988502788587</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.002612654820156</v>
+        <v>0.001034177644024</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.003463908596456</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.001723242725353</v>
+        <v>0.000684445390785</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>0.002372572506219</v>
+        <v>0.00167154587665</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>0.003463908596456</v>
+        <v>0.001113634833004</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.001607582484542</v>
+        <v>0.001949171470009</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.004728542775922</v>
+        <v>0.001721053265594</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.001667889866281</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L29" s="2" t="n">
         <f aca="false">SUM(B29:J29)</f>
-        <v>0.024252957191541</v>
+        <v>0.014893872483323</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7080,37 +7098,104 @@
         <v>38</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.006342414954972</v>
+        <v>0.000739874355386</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.006342414954972</v>
+        <v>0.001034177644024</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.003267307955399</v>
+        <v>0.000742424887185</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.004426030160865</v>
+        <v>0.001227048417644</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>0.005408225365458</v>
+        <v>0.001120728357472</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0.003267307955399</v>
+        <v>0.0008620306114</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.002086641442309</v>
+        <v>0.001949171470009</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.003676802162868</v>
+        <v>0.001721053265594</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.00199182577437</v>
+        <v>0.004538845215916</v>
       </c>
       <c r="L30" s="2" t="n">
         <f aca="false">SUM(B30:J30)</f>
-        <v>0.036808970726612</v>
-      </c>
-    </row>
+        <v>0.01393535422463</v>
+      </c>
+    </row>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7130,11 +7215,11 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -7166,7 +7251,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.061412252636368</v>
@@ -7174,7 +7259,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.060925920885528</v>
@@ -7182,7 +7267,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.049057239970101</v>
@@ -7206,7 +7291,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0.03230960639619</v>
@@ -7214,7 +7299,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0.031517045167171</v>
@@ -7222,7 +7307,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0.027984544737997</v>
@@ -7230,7 +7315,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.027071367472617</v>
@@ -7238,7 +7323,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.027042723127141</v>
@@ -7246,7 +7331,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0.026814927299615</v>
@@ -7254,7 +7339,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>0.021947982916626</v>
@@ -7262,7 +7347,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>0.021289391893076</v>
@@ -7270,7 +7355,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>0.020749890561298</v>
@@ -7278,7 +7363,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>0.020129038972496</v>
@@ -7286,7 +7371,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.019148094226871</v>
@@ -7294,7 +7379,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.0181906631702</v>
@@ -7302,7 +7387,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.01792643196933</v>
@@ -7310,7 +7395,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0.017585390793097</v>
@@ -7318,7 +7403,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0.017128622520416</v>
@@ -7326,7 +7411,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0.015279658352717</v>
@@ -7334,7 +7419,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.015011008796529</v>
@@ -7342,7 +7427,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0.013494910326535</v>
@@ -7350,7 +7435,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0.011814396310187</v>
@@ -7358,7 +7443,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0.011679525708987</v>
@@ -7366,7 +7451,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0.011561594442748</v>
@@ -7392,11 +7477,11 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -7407,167 +7492,167 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>0.098135126002848</v>
+        <v>0.011880425476822</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.08871105975876</v>
+        <v>0.008334707360577</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.066805520367159</v>
+        <v>0.008334707360577</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.06638957937868</v>
+        <v>0.008334707360577</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.05708173459475</v>
+        <v>0.005386716562362</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.052843184201283</v>
+        <v>0.005386716562362</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.051140870061045</v>
+        <v>0.005386716562362</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.044842061117757</v>
+        <v>0.005386716562362</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.044412123296976</v>
+        <v>0.005386716562362</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.035623030103937</v>
+        <v>0.003215024701648</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.034776065332343</v>
+        <v>0.003215024701648</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.033987995636497</v>
+        <v>0.003215024701648</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.030437404660099</v>
+        <v>0.003215024701648</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.029569030013189</v>
+        <v>0.003215024701648</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.026362431321555</v>
+        <v>0.003215024701648</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.026009572839294</v>
+        <v>0.003215024701648</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.025904262691744</v>
+        <v>0.003215024701648</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.02500457495046</v>
+        <v>0.003215024701648</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.024833810518055</v>
+        <v>0.003215024701648</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.023513893381404</v>
+        <v>0.003215024701648</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.022524209216045</v>
+        <v>0.001996329427782</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7575,55 +7660,55 @@
         <v>12</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.021652633342143</v>
+        <v>0.001996329427782</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.016321959999715</v>
+        <v>0.001996329427782</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.011774303992471</v>
+        <v>0.001365297442266</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.011712418916204</v>
+        <v>0.001365297442266</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.008615304564256</v>
+        <v>0.000988502788587</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.007284062106111</v>
+        <v>0.000739874355386</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.00722596178238</v>
+        <v>0.000739874355386</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7631,7 +7716,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.006505815852845</v>
+        <v>0.000739874355386</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7658,7 +7743,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -7690,7 +7775,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.064866180032911</v>
@@ -7698,7 +7783,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.060012378119701</v>
@@ -7706,7 +7791,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.055607565813788</v>
@@ -7714,7 +7799,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0.049768836493768</v>
@@ -7722,7 +7807,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0.048129464381569</v>
@@ -7738,7 +7823,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0.039834271447787</v>
@@ -7746,7 +7831,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0.03940833365989</v>
@@ -7754,7 +7839,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.036918596065291</v>
@@ -7762,7 +7847,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.034790085143883</v>
@@ -7770,7 +7855,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0.034052023614012</v>
@@ -7778,7 +7863,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>0.02640681608664</v>
@@ -7786,7 +7871,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>0.022171817245874</v>
@@ -7794,7 +7879,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>0.020965065092429</v>
@@ -7802,7 +7887,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>0.017904926316641</v>
@@ -7810,7 +7895,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.015894191082612</v>
@@ -7818,7 +7903,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.015509184528179</v>
@@ -7826,7 +7911,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.015211539473307</v>
@@ -7834,7 +7919,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0.014328201133119</v>
@@ -7842,7 +7927,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0.013627594100795</v>
@@ -7850,7 +7935,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0.013100458774938</v>
@@ -7858,7 +7943,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.009771889326081</v>
@@ -7874,7 +7959,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0.009099291521069</v>
@@ -7882,7 +7967,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0.008236774401618</v>
@@ -7890,7 +7975,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0.007960454987921</v>
@@ -7920,7 +8005,7 @@
       <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -7952,7 +8037,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.064449339923628</v>
@@ -7968,7 +8053,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.040598904839344</v>
@@ -7976,7 +8061,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0.036352721406907</v>
@@ -7984,7 +8069,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0.035868881632545</v>
@@ -7992,7 +8077,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0.035617766799374</v>
@@ -8000,7 +8085,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0.035452105019217</v>
@@ -8008,7 +8093,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0.031588271369958</v>
@@ -8016,7 +8101,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.031175177368103</v>
@@ -8024,7 +8109,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.03087007646131</v>
@@ -8032,7 +8117,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0.030624431143441</v>
@@ -8040,7 +8125,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>0.029720582226684</v>
@@ -8048,7 +8133,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>0.029405771598589</v>
@@ -8056,7 +8141,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>0.02884469651111</v>
@@ -8064,7 +8149,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>0.028420775813248</v>
@@ -8072,7 +8157,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.02777860650915</v>
@@ -8080,7 +8165,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.027752928423081</v>
@@ -8088,7 +8173,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.023367882665185</v>
@@ -8096,7 +8181,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0.022935740921226</v>
@@ -8104,7 +8189,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0.022531312675494</v>
@@ -8112,7 +8197,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0.021135762164057</v>
@@ -8120,7 +8205,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.020563865739677</v>
@@ -8128,7 +8213,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0.02040442372888</v>
@@ -8136,7 +8221,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0.007313337401393</v>
@@ -8152,7 +8237,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0.006382251361017</v>
@@ -8182,7 +8267,7 @@
       <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -8190,7 +8275,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="n">
         <v>0.058831297098991</v>
@@ -8198,7 +8283,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.058525645061123</v>
@@ -8206,7 +8291,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.057107409568359</v>
@@ -8214,7 +8299,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.055138124558734</v>
@@ -8222,7 +8307,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.05112212201548</v>
@@ -8230,7 +8315,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.049527650205596</v>
@@ -8246,7 +8331,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0.048046560901628</v>
@@ -8262,7 +8347,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0.047167357417905</v>
@@ -8270,7 +8355,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0.045555915861254</v>
@@ -8278,7 +8363,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.042556884983299</v>
@@ -8286,7 +8371,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.042044938065819</v>
@@ -8294,7 +8379,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0.040843444196641</v>
@@ -8302,7 +8387,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>0.039305832074151</v>
@@ -8310,7 +8395,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>0.037737814739038</v>
@@ -8326,7 +8411,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>0.034988294650501</v>
@@ -8334,7 +8419,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.033511462691393</v>
@@ -8342,7 +8427,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.033341992125147</v>
@@ -8350,7 +8435,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.03309121946581</v>
@@ -8374,7 +8459,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0.006914189205797</v>
@@ -8382,7 +8467,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.006671801894485</v>
@@ -8390,7 +8475,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0.006610928234244</v>
@@ -8398,7 +8483,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0.006261814762101</v>
@@ -8406,7 +8491,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0.005921930881296</v>
@@ -8414,7 +8499,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0.005330422440059</v>
@@ -8444,7 +8529,7 @@
       <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -8484,7 +8569,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.063029546935328</v>
@@ -8492,7 +8577,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.05321955843058</v>
@@ -8500,7 +8585,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0.048674028289121</v>
@@ -8508,7 +8593,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0.0435493350081</v>
@@ -8516,7 +8601,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0.039184942390971</v>
@@ -8524,7 +8609,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0.038400868164487</v>
@@ -8532,7 +8617,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0.037971282374854</v>
@@ -8540,7 +8625,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.034644013205869</v>
@@ -8548,7 +8633,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.032927423312378</v>
@@ -8556,7 +8641,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0.03159265848666</v>
@@ -8564,7 +8649,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>0.030648238830022</v>
@@ -8572,7 +8657,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>0.02880041611189</v>
@@ -8580,7 +8665,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>0.026624821463133</v>
@@ -8588,7 +8673,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>0.026497319090505</v>
@@ -8596,7 +8681,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.021353152555967</v>
@@ -8604,7 +8689,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.018338843883817</v>
@@ -8612,7 +8697,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.017629997489596</v>
@@ -8620,7 +8705,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0.016736686476317</v>
@@ -8628,7 +8713,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0.016664570977996</v>
@@ -8636,7 +8721,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0.016253172332893</v>
@@ -8644,7 +8729,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.014621031395452</v>
@@ -8652,7 +8737,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0.014039511827619</v>
@@ -8660,7 +8745,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0.011854508870798</v>
@@ -8676,7 +8761,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0.005551256152628</v>
@@ -8703,10 +8788,10 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -8717,7 +8802,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>0.111208564150866</v>
+        <v>0.012003140241968</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8725,15 +8810,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.081373537172824</v>
+        <v>0.008649766002991</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.075132790439739</v>
+        <v>0.008536521057152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8741,15 +8826,15 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.073691454723551</v>
+        <v>0.008070316845122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.0670970949121</v>
+        <v>0.00738639270377</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8757,63 +8842,63 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.056400300287419</v>
+        <v>0.006393150913425</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.043406175258573</v>
+        <v>0.005874269119448</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.04242215335926</v>
+        <v>0.004877972263608</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.040936075955994</v>
+        <v>0.004526991414819</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.039735988124294</v>
+        <v>0.004105057495601</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.03846408615066</v>
+        <v>0.003993214448657</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.038461053338337</v>
+        <v>0.003956900450265</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.029990841564508</v>
+        <v>0.003678451011629</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8821,95 +8906,95 @@
         <v>26</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.029959960642799</v>
+        <v>0.003418646529607</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.026691213113786</v>
+        <v>0.003359515611924</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.026378943701897</v>
+        <v>0.002761849066697</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.025409003919532</v>
+        <v>0.002754130818816</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.024723014449366</v>
+        <v>0.002685852537286</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.021761374106006</v>
+        <v>0.002385500924686</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.017371257661726</v>
+        <v>0.001674017755082</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.014942364749043</v>
+        <v>0.001457547491935</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.013251366378604</v>
+        <v>0.001416206372331</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.011734729619289</v>
+        <v>0.001251017424327</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.011701642762061</v>
+        <v>0.001113634833004</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.008416546741118</v>
+        <v>0.001063784135254</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8917,31 +9002,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.008366175960128</v>
+        <v>0.001031410320711</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.008176697729194</v>
+        <v>0.00092493106705</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.00807425253512</v>
+        <v>0.000898891642548</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.004721340492209</v>
+        <v>0.0008620306114</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8968,7 +9053,7 @@
       <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -9008,7 +9093,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.058253229676763</v>
@@ -9016,7 +9101,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.057984039973476</v>
@@ -9024,7 +9109,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0.054946647186877</v>
@@ -9032,7 +9117,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0.053538469265407</v>
@@ -9040,7 +9125,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0.046334674921034</v>
@@ -9048,7 +9133,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0.038071592934346</v>
@@ -9056,7 +9141,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0.03642963849015</v>
@@ -9064,7 +9149,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.03465610760295</v>
@@ -9072,7 +9157,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.024907018904141</v>
@@ -9080,7 +9165,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0.024464122771134</v>
@@ -9088,7 +9173,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>0.023812194241013</v>
@@ -9104,7 +9189,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>0.021350074366069</v>
@@ -9112,7 +9197,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>0.021287785622696</v>
@@ -9120,7 +9205,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.018779772980777</v>
@@ -9128,7 +9213,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.017579271680151</v>
@@ -9136,7 +9221,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.017313266154351</v>
@@ -9144,7 +9229,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0.016388214911352</v>
@@ -9152,7 +9237,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0.016190747502871</v>
@@ -9160,7 +9245,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0.015876403070282</v>
@@ -9168,7 +9253,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.015845764060073</v>
@@ -9176,7 +9261,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0.015412160604796</v>
@@ -9184,7 +9269,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0.01476967336852</v>
@@ -9192,7 +9277,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0.01446824236088</v>
@@ -9200,7 +9285,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0.008566589254884</v>
@@ -9230,7 +9315,7 @@
       <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -9254,7 +9339,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.058573119558245</v>
@@ -9262,7 +9347,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.057724371735422</v>
@@ -9270,7 +9355,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.05592545089873</v>
@@ -9278,7 +9363,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.053653553849096</v>
@@ -9294,7 +9379,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0.048221707957468</v>
@@ -9302,7 +9387,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0.047183294050596</v>
@@ -9318,7 +9403,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0.046525887150695</v>
@@ -9326,7 +9411,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.045508749885371</v>
@@ -9334,7 +9419,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.03645941880977</v>
@@ -9342,7 +9427,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0.032408625344459</v>
@@ -9350,7 +9435,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>0.028626491091521</v>
@@ -9358,7 +9443,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>0.024606953765649</v>
@@ -9366,7 +9451,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>0.024030514540251</v>
@@ -9374,7 +9459,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>0.022018954874707</v>
@@ -9382,7 +9467,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.020985485453231</v>
@@ -9390,7 +9475,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.018288521467022</v>
@@ -9398,7 +9483,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.017376257140601</v>
@@ -9406,7 +9491,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0.016815314829618</v>
@@ -9414,7 +9499,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0.01655391028625</v>
@@ -9422,7 +9507,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0.015631478846691</v>
@@ -9430,7 +9515,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.015412600741749</v>
@@ -9438,7 +9523,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0.014986629524184</v>
@@ -9446,7 +9531,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0.014848538640697</v>
@@ -9462,7 +9547,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0.012336094270497</v>

--- a/StateOfPractice/AHP2021/MedicalImaging/AHP_Charts.xlsx
+++ b/StateOfPractice/AHP2021/MedicalImaging/AHP_Charts.xlsx
@@ -67,10 +67,10 @@
     <t xml:space="preserve">ImageJ</t>
   </si>
   <si>
-    <t xml:space="preserve">Fiji</t>
+    <t xml:space="preserve">OHIF Viewer</t>
   </si>
   <si>
-    <t xml:space="preserve">OHIF Viewer</t>
+    <t xml:space="preserve">Fiji</t>
   </si>
   <si>
     <t xml:space="preserve">ParaView</t>
@@ -79,31 +79,31 @@
     <t xml:space="preserve">Weasis</t>
   </si>
   <si>
+    <t xml:space="preserve">medInria</t>
+  </si>
+  <si>
     <t xml:space="preserve">BioImage Suite Web</t>
   </si>
   <si>
-    <t xml:space="preserve">medInria</t>
+    <t xml:space="preserve">OsiriX Lite</t>
   </si>
   <si>
     <t xml:space="preserve">INVESALIUS 3</t>
   </si>
   <si>
-    <t xml:space="preserve">SMILI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OsiriX Lite</t>
+    <t xml:space="preserve">Gwyddion</t>
   </si>
   <si>
     <t xml:space="preserve">Horos</t>
   </si>
   <si>
-    <t xml:space="preserve">ITK-SNAP</t>
+    <t xml:space="preserve">SMILI</t>
   </si>
   <si>
     <t xml:space="preserve">Ginkgo CADx</t>
   </si>
   <si>
-    <t xml:space="preserve">Gwyddion</t>
+    <t xml:space="preserve">ITK-SNAP</t>
   </si>
   <si>
     <t xml:space="preserve">MicroView</t>
@@ -115,25 +115,25 @@
     <t xml:space="preserve">MRIcroGL</t>
   </si>
   <si>
-    <t xml:space="preserve">dwv</t>
+    <t xml:space="preserve">XMedCon</t>
   </si>
   <si>
-    <t xml:space="preserve">XMedCon</t>
+    <t xml:space="preserve">Slice:Drop</t>
   </si>
   <si>
     <t xml:space="preserve">DicomBrowser</t>
   </si>
   <si>
-    <t xml:space="preserve">Slice:Drop</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMIDE</t>
   </si>
   <si>
-    <t xml:space="preserve">GATE</t>
+    <t xml:space="preserve">dwv</t>
   </si>
   <si>
     <t xml:space="preserve">3DimViewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATE</t>
   </si>
   <si>
     <t xml:space="preserve">dicompyler</t>
@@ -390,10 +390,10 @@
                   <c:v>ImageJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>OHIF Viewer</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fiji</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ParaView</c:v>
@@ -402,31 +402,31 @@
                   <c:v>Weasis</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>medInria</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>INVESALIUS 3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>SMILI</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>OsiriX Lite</c:v>
+                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Horos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ITK-SNAP</c:v>
+                  <c:v>SMILI</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Gwyddion</c:v>
+                  <c:v>ITK-SNAP</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>MicroView</c:v>
@@ -438,25 +438,25 @@
                   <c:v>MRIcroGL</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>dwv</c:v>
+                  <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>XMedCon</c:v>
+                  <c:v>Slice:Drop</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Slice:Drop</c:v>
+                  <c:v>AMIDE</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>AMIDE</c:v>
+                  <c:v>dwv</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>3DimViewer</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>GATE</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3DimViewer</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>dicompyler</c:v>
@@ -486,10 +486,10 @@
                   <c:v>0.001996329427782</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.003215024701648</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.001996329427782</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.003215024701648</c:v>
@@ -498,31 +498,31 @@
                   <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.005386716562362</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.008334707360577</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>0.003215024701648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.008334707360577</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.005386716562362</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.008334707360577</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.003215024701648</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.001365297442266</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.005386716562362</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.005386716562362</c:v>
+                  <c:v>0.001365297442266</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.005386716562362</c:v>
@@ -534,25 +534,25 @@
                   <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.000739874355386</c:v>
+                  <c:v>0.005386716562362</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.005386716562362</c:v>
+                  <c:v>0.008334707360577</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.008334707360577</c:v>
+                  <c:v>0.003215024701648</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.003215024701648</c:v>
+                  <c:v>0.000739874355386</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0.001996329427782</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.000739874355386</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.001996329427782</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.003215024701648</c:v>
@@ -626,10 +626,10 @@
                   <c:v>ImageJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>OHIF Viewer</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fiji</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ParaView</c:v>
@@ -638,31 +638,31 @@
                   <c:v>Weasis</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>medInria</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>INVESALIUS 3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>SMILI</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>OsiriX Lite</c:v>
+                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Horos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ITK-SNAP</c:v>
+                  <c:v>SMILI</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Gwyddion</c:v>
+                  <c:v>ITK-SNAP</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>MicroView</c:v>
@@ -674,25 +674,25 @@
                   <c:v>MRIcroGL</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>dwv</c:v>
+                  <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>XMedCon</c:v>
+                  <c:v>Slice:Drop</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Slice:Drop</c:v>
+                  <c:v>AMIDE</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>AMIDE</c:v>
+                  <c:v>dwv</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>3DimViewer</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>GATE</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3DimViewer</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>dicompyler</c:v>
@@ -722,10 +722,10 @@
                   <c:v>0.009107502081149</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.012616067188489</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.006093012196034</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.012616067188489</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.006093012196034</c:v>
@@ -740,25 +740,25 @@
                   <c:v>0.006093012196034</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.006093012196034</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.001604043270523</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.002547296380556</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.006093012196034</c:v>
+                  <c:v>0.003936177265735</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.003936177265735</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.001604043270523</c:v>
+                  <c:v>0.002547296380556</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.003936177265735</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.003936177265735</c:v>
+                  <c:v>0.001604043270523</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.001604043270523</c:v>
@@ -770,25 +770,25 @@
                   <c:v>0.002547296380556</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.001604043270523</c:v>
+                  <c:v>0.002547296380556</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.002547296380556</c:v>
+                  <c:v>0.001034177644024</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.003936177265735</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.001034177644024</c:v>
+                  <c:v>0.001604043270523</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.001604043270523</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0.001604043270523</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.001034177644024</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.001604043270523</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.001604043270523</c:v>
@@ -862,10 +862,10 @@
                   <c:v>ImageJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>OHIF Viewer</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fiji</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ParaView</c:v>
@@ -874,31 +874,31 @@
                   <c:v>Weasis</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>medInria</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>INVESALIUS 3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>SMILI</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>OsiriX Lite</c:v>
+                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Horos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ITK-SNAP</c:v>
+                  <c:v>SMILI</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Gwyddion</c:v>
+                  <c:v>ITK-SNAP</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>MicroView</c:v>
@@ -910,25 +910,25 @@
                   <c:v>MRIcroGL</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>dwv</c:v>
+                  <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>XMedCon</c:v>
+                  <c:v>Slice:Drop</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Slice:Drop</c:v>
+                  <c:v>AMIDE</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>AMIDE</c:v>
+                  <c:v>dwv</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>3DimViewer</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>GATE</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3DimViewer</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>dicompyler</c:v>
@@ -958,10 +958,10 @@
                   <c:v>0.008858344911054</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.005676956348873</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.008858344911054</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.005676956348873</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.00310482720538</c:v>
@@ -979,7 +979,7 @@
                   <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.008858344911054</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.00310482720538</c:v>
@@ -988,7 +988,7 @@
                   <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00310482720538</c:v>
+                  <c:v>0.008858344911054</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.00310482720538</c:v>
@@ -1009,22 +1009,22 @@
                   <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00310482720538</c:v>
+                  <c:v>0.005676956348873</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.005676956348873</c:v>
+                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0.00310482720538</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.000742424887185</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.00310482720538</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.00310482720538</c:v>
@@ -1098,10 +1098,10 @@
                   <c:v>ImageJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>OHIF Viewer</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fiji</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ParaView</c:v>
@@ -1110,31 +1110,31 @@
                   <c:v>Weasis</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>medInria</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>INVESALIUS 3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>SMILI</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>OsiriX Lite</c:v>
+                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Horos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ITK-SNAP</c:v>
+                  <c:v>SMILI</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Gwyddion</c:v>
+                  <c:v>ITK-SNAP</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>MicroView</c:v>
@@ -1146,25 +1146,25 @@
                   <c:v>MRIcroGL</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>dwv</c:v>
+                  <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>XMedCon</c:v>
+                  <c:v>Slice:Drop</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Slice:Drop</c:v>
+                  <c:v>AMIDE</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>AMIDE</c:v>
+                  <c:v>dwv</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>3DimViewer</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>GATE</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3DimViewer</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>dicompyler</c:v>
@@ -1194,10 +1194,10 @@
                   <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.001227048417644</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.004978587711005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.001227048417644</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.004978587711005</c:v>
@@ -1242,25 +1242,25 @@
                   <c:v>0.000684445390785</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0.004978587711005</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.000684445390785</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.004978587711005</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.000684445390785</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0.004978587711005</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>0.000684445390785</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.004978587711005</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.004978587711005</c:v>
@@ -1334,10 +1334,10 @@
                   <c:v>ImageJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>OHIF Viewer</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fiji</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ParaView</c:v>
@@ -1346,31 +1346,31 @@
                   <c:v>Weasis</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>medInria</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>INVESALIUS 3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>SMILI</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>OsiriX Lite</c:v>
+                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Horos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ITK-SNAP</c:v>
+                  <c:v>SMILI</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Gwyddion</c:v>
+                  <c:v>ITK-SNAP</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>MicroView</c:v>
@@ -1382,25 +1382,25 @@
                   <c:v>MRIcroGL</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>dwv</c:v>
+                  <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>XMedCon</c:v>
+                  <c:v>Slice:Drop</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Slice:Drop</c:v>
+                  <c:v>AMIDE</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>AMIDE</c:v>
+                  <c:v>dwv</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>3DimViewer</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>GATE</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3DimViewer</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>dicompyler</c:v>
@@ -1448,10 +1448,10 @@
                   <c:v>0.004590962249284</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.004590962249284</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.007574761299083</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.004590962249284</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.004590962249284</c:v>
@@ -1487,16 +1487,16 @@
                   <c:v>0.00167154587665</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.002753185493444</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.00167154587665</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.002753185493444</c:v>
-                </c:pt>
                 <c:pt idx="23">
+                  <c:v>0.00167154587665</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.000675822484444</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.00167154587665</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.00167154587665</c:v>
@@ -1570,10 +1570,10 @@
                   <c:v>ImageJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>OHIF Viewer</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fiji</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ParaView</c:v>
@@ -1582,31 +1582,31 @@
                   <c:v>Weasis</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>medInria</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>INVESALIUS 3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>SMILI</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>OsiriX Lite</c:v>
+                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Horos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ITK-SNAP</c:v>
+                  <c:v>SMILI</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Gwyddion</c:v>
+                  <c:v>ITK-SNAP</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>MicroView</c:v>
@@ -1618,25 +1618,25 @@
                   <c:v>MRIcroGL</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>dwv</c:v>
+                  <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>XMedCon</c:v>
+                  <c:v>Slice:Drop</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Slice:Drop</c:v>
+                  <c:v>AMIDE</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>AMIDE</c:v>
+                  <c:v>dwv</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>3DimViewer</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>GATE</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3DimViewer</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>dicompyler</c:v>
@@ -1666,10 +1666,10 @@
                   <c:v>0.008649766002991</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.008070316845122</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.00738639270377</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.008070316845122</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.006393150913425</c:v>
@@ -1678,31 +1678,31 @@
                   <c:v>0.008536521057152</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.005874269119448</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.003993214448657</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.005874269119448</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.002385500924686</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.004526991414819</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.002754130818816</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.002385500924686</c:v>
+                  <c:v>0.001031410320711</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.003678451011629</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.004877972263608</c:v>
+                  <c:v>0.002754130818816</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.002761849066697</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.001031410320711</c:v>
+                  <c:v>0.004877972263608</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.003359515611924</c:v>
@@ -1714,25 +1714,25 @@
                   <c:v>0.002685852537286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.004105057495601</c:v>
+                  <c:v>0.001457547491935</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001457547491935</c:v>
+                  <c:v>0.000898891642548</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.001416206372331</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.000898891642548</c:v>
+                  <c:v>0.001063784135254</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.001063784135254</c:v>
+                  <c:v>0.004105057495601</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0.001674017755082</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.003956900450265</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.001674017755082</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.00092493106705</c:v>
@@ -1806,10 +1806,10 @@
                   <c:v>ImageJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>OHIF Viewer</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fiji</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ParaView</c:v>
@@ -1818,31 +1818,31 @@
                   <c:v>Weasis</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>medInria</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>INVESALIUS 3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>SMILI</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>OsiriX Lite</c:v>
+                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Horos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ITK-SNAP</c:v>
+                  <c:v>SMILI</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Gwyddion</c:v>
+                  <c:v>ITK-SNAP</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>MicroView</c:v>
@@ -1854,25 +1854,25 @@
                   <c:v>MRIcroGL</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>dwv</c:v>
+                  <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>XMedCon</c:v>
+                  <c:v>Slice:Drop</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Slice:Drop</c:v>
+                  <c:v>AMIDE</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>AMIDE</c:v>
+                  <c:v>dwv</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>3DimViewer</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>GATE</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3DimViewer</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>dicompyler</c:v>
@@ -1896,91 +1896,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.008876770890413</c:v>
+                  <c:v>0.010224294628065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.008876770890413</c:v>
+                  <c:v>0.001727155126607</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.008876770890413</c:v>
+                  <c:v>0.010824838970765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.008876770890413</c:v>
+                  <c:v>0.003344576386966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.005721141311357</c:v>
+                  <c:v>0.008332172256335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.003460689351617</c:v>
+                  <c:v>0.005595059618077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.005721141311357</c:v>
+                  <c:v>0.006066249057602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.003460689351617</c:v>
+                  <c:v>0.005357213131275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.001949171470009</c:v>
+                  <c:v>0.008045057661229</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.005721141311357</c:v>
+                  <c:v>0.001158769453802</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.003460689351617</c:v>
+                  <c:v>0.009738711122335</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.003460689351617</c:v>
+                  <c:v>0.007764599397036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.003460689351617</c:v>
+                  <c:v>0.004210474940119</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.001949171470009</c:v>
+                  <c:v>0.00450840558284</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.001949171470009</c:v>
+                  <c:v>0.002436650095619</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.001949171470009</c:v>
+                  <c:v>0.001079726076436</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.001949171470009</c:v>
+                  <c:v>0.001108104791156</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.001949171470009</c:v>
+                  <c:v>0.001045358678586</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.005721141311357</c:v>
+                  <c:v>0.001069167653499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001949171470009</c:v>
+                  <c:v>0.000926272487273</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.001949171470009</c:v>
+                  <c:v>0.000879694594438</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.001949171470009</c:v>
+                  <c:v>0.001112962075765</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.001949171470009</c:v>
+                  <c:v>0.001267402216809</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.005721141311357</c:v>
+                  <c:v>0.002297743706232</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.001949171470009</c:v>
+                  <c:v>0.004515161078543</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00089495577286</c:v>
+                  <c:v>0.000514002090898</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.003460689351617</c:v>
+                  <c:v>0.002816646618622</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.001949171470009</c:v>
+                  <c:v>0.00123376812908</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.001949171470009</c:v>
+                  <c:v>0.001910873485104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2042,10 +2042,10 @@
                   <c:v>ImageJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>OHIF Viewer</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fiji</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ParaView</c:v>
@@ -2054,31 +2054,31 @@
                   <c:v>Weasis</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>medInria</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>INVESALIUS 3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>SMILI</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>OsiriX Lite</c:v>
+                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Horos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ITK-SNAP</c:v>
+                  <c:v>SMILI</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Gwyddion</c:v>
+                  <c:v>ITK-SNAP</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>MicroView</c:v>
@@ -2090,25 +2090,25 @@
                   <c:v>MRIcroGL</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>dwv</c:v>
+                  <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>XMedCon</c:v>
+                  <c:v>Slice:Drop</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Slice:Drop</c:v>
+                  <c:v>AMIDE</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>AMIDE</c:v>
+                  <c:v>dwv</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>3DimViewer</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>GATE</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3DimViewer</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>dicompyler</c:v>
@@ -2150,31 +2150,31 @@
                   <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.003006415811732</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.001721053265594</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.003006415811732</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.001721053265594</c:v>
+                  <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.005298241828414</c:v>
+                  <c:v>0.003006415811732</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.005298241828414</c:v>
+                  <c:v>0.001721053265594</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.003006415811732</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.003006415811732</c:v>
+                  <c:v>0.005298241828414</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.003006415811732</c:v>
@@ -2186,7 +2186,7 @@
                   <c:v>0.003006415811732</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.005298241828414</c:v>
+                  <c:v>0.001721053265594</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.001721053265594</c:v>
@@ -2195,16 +2195,16 @@
                   <c:v>0.001721053265594</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.003006415811732</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.005298241828414</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.001721053265594</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.003006415811732</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>0.005298241828414</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.001721053265594</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.001721053265594</c:v>
@@ -2278,10 +2278,10 @@
                   <c:v>ImageJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>OHIF Viewer</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fiji</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ParaView</c:v>
@@ -2290,31 +2290,31 @@
                   <c:v>Weasis</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>BioImage Suite Web</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>medInria</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>INVESALIUS 3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>SMILI</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>OsiriX Lite</c:v>
+                  <c:v>Gwyddion</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Horos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ITK-SNAP</c:v>
+                  <c:v>SMILI</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Ginkgo CADx</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Gwyddion</c:v>
+                  <c:v>ITK-SNAP</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>MicroView</c:v>
@@ -2326,25 +2326,25 @@
                   <c:v>MRIcroGL</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>dwv</c:v>
+                  <c:v>XMedCon</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>XMedCon</c:v>
+                  <c:v>Slice:Drop</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>DicomBrowser</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Slice:Drop</c:v>
+                  <c:v>AMIDE</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>AMIDE</c:v>
+                  <c:v>dwv</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>3DimViewer</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>GATE</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3DimViewer</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>dicompyler</c:v>
@@ -2374,10 +2374,10 @@
                   <c:v>0.01299500937249</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.004538845215916</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.00972014390414</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.004538845215916</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.004538845215916</c:v>
@@ -2386,10 +2386,10 @@
                   <c:v>0.006929139075616</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.004538845215916</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.00262651400929</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.004538845215916</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.00262651400929</c:v>
@@ -2422,7 +2422,7 @@
                   <c:v>0.006929139075616</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00262651400929</c:v>
+                  <c:v>0.001483640166952</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.001483640166952</c:v>
@@ -2434,13 +2434,13 @@
                   <c:v>0.001483640166952</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0.00262651400929</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.001483640166952</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>0.00262651400929</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.001483640166952</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.001483640166952</c:v>
@@ -2460,11 +2460,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="38289785"/>
-        <c:axId val="5392666"/>
+        <c:axId val="40040432"/>
+        <c:axId val="89705862"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38289785"/>
+        <c:axId val="40040432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2492,7 +2492,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5392666"/>
+        <c:crossAx val="89705862"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2500,7 +2500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5392666"/>
+        <c:axId val="89705862"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,7 +2537,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38289785"/>
+        <c:crossAx val="40040432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2833,11 +2833,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="17402983"/>
-        <c:axId val="36423787"/>
+        <c:axId val="44430268"/>
+        <c:axId val="20172955"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="17402983"/>
+        <c:axId val="44430268"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2865,7 +2865,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36423787"/>
+        <c:crossAx val="20172955"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2873,7 +2873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36423787"/>
+        <c:axId val="20172955"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2910,7 +2910,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17402983"/>
+        <c:crossAx val="44430268"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3175,11 +3175,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="43291051"/>
-        <c:axId val="83711588"/>
+        <c:axId val="88852619"/>
+        <c:axId val="70682344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43291051"/>
+        <c:axId val="88852619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3207,7 +3207,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83711588"/>
+        <c:crossAx val="70682344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3215,7 +3215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83711588"/>
+        <c:axId val="70682344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3252,7 +3252,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43291051"/>
+        <c:crossAx val="88852619"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3517,11 +3517,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="23614101"/>
-        <c:axId val="11422634"/>
+        <c:axId val="95974805"/>
+        <c:axId val="98794529"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="23614101"/>
+        <c:axId val="95974805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3549,7 +3549,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11422634"/>
+        <c:crossAx val="98794529"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3557,7 +3557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11422634"/>
+        <c:axId val="98794529"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3594,7 +3594,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23614101"/>
+        <c:crossAx val="95974805"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3859,11 +3859,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="81548853"/>
-        <c:axId val="84872529"/>
+        <c:axId val="95065814"/>
+        <c:axId val="79129043"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81548853"/>
+        <c:axId val="95065814"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3891,7 +3891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84872529"/>
+        <c:crossAx val="79129043"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3899,7 +3899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84872529"/>
+        <c:axId val="79129043"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3936,7 +3936,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81548853"/>
+        <c:crossAx val="95065814"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4201,11 +4201,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="46350837"/>
-        <c:axId val="83389294"/>
+        <c:axId val="28652208"/>
+        <c:axId val="78873738"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46350837"/>
+        <c:axId val="28652208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4233,7 +4233,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83389294"/>
+        <c:crossAx val="78873738"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4241,7 +4241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83389294"/>
+        <c:axId val="78873738"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4278,7 +4278,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46350837"/>
+        <c:crossAx val="28652208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4543,11 +4543,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="11305369"/>
-        <c:axId val="79591902"/>
+        <c:axId val="11099531"/>
+        <c:axId val="92585823"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="11305369"/>
+        <c:axId val="11099531"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4575,7 +4575,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79591902"/>
+        <c:crossAx val="92585823"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4583,7 +4583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79591902"/>
+        <c:axId val="92585823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4620,7 +4620,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11305369"/>
+        <c:crossAx val="11099531"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4697,88 +4697,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>ImageJ</c:v>
+                  <c:v>OHIF Viewer</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3D Slicer</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Gwyddion</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ParaView</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OsiriX Lite</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Horos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>medInria</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Weasis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BioImage Suite Web</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GATE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ginkgo CADx</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SMILI</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Fiji</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>OHIF Viewer</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ParaView</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BioImage Suite Web</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>dwv</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMILI</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>GATE</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ITK-SNAP</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Horos</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>medInria</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Weasis</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Drishti</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>OsiriX Lite</c:v>
+                  <c:v>ITK-SNAP</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>3DimViewer</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>DICOM Viewer</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>ImageJ</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>dwv</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>MatrixUser</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>INVESALIUS 3</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ginkgo CADx</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Gwyddion</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
+                  <c:v>AMIDE</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Papaya</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MicroView</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>XMedCon</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>MRIcroGL</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>XMedCon</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>MicroView</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>MatrixUser</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Papaya</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
+                  <c:v>Slice:Drop</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>DicomBrowser</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Slice:Drop</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3DimViewer</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>AMIDE</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>dicompyler</c:v>
@@ -4793,91 +4793,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.090096125414076</c:v>
+                  <c:v>0.010824838970765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.078982138151358</c:v>
+                  <c:v>0.010224294628065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.071628353191058</c:v>
+                  <c:v>0.009738711122335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.069237826450574</c:v>
+                  <c:v>0.008332172256335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.058253229676763</c:v>
+                  <c:v>0.008045057661229</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.057984039973476</c:v>
+                  <c:v>0.007764599397036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.054946647186877</c:v>
+                  <c:v>0.006066249057602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.053538469265407</c:v>
+                  <c:v>0.005595059618077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.046334674921034</c:v>
+                  <c:v>0.005357213131275</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.038071592934346</c:v>
+                  <c:v>0.004515161078543</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.03642963849015</c:v>
+                  <c:v>0.00450840558284</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.03465610760295</c:v>
+                  <c:v>0.004210474940119</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.024907018904141</c:v>
+                  <c:v>0.003344576386966</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.024464122771134</c:v>
+                  <c:v>0.002816646618622</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.023812194241013</c:v>
+                  <c:v>0.002436650095619</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.022829854887943</c:v>
+                  <c:v>0.002297743706232</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.021350074366069</c:v>
+                  <c:v>0.001910873485104</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.021287785622696</c:v>
+                  <c:v>0.001727155126607</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.018779772980777</c:v>
+                  <c:v>0.001267402216809</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.017579271680151</c:v>
+                  <c:v>0.00123376812908</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.017313266154351</c:v>
+                  <c:v>0.001158769453802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.016388214911352</c:v>
+                  <c:v>0.001112962075765</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.016190747502871</c:v>
+                  <c:v>0.001108104791156</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.015876403070282</c:v>
+                  <c:v>0.001079726076436</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.015845764060073</c:v>
+                  <c:v>0.001069167653499</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.015412160604796</c:v>
+                  <c:v>0.001045358678586</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.01476967336852</c:v>
+                  <c:v>0.000926272487273</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.01446824236088</c:v>
+                  <c:v>0.000879694594438</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.008566589254884</c:v>
+                  <c:v>0.000514002090898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4885,11 +4885,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="26712757"/>
-        <c:axId val="99457258"/>
+        <c:axId val="52661563"/>
+        <c:axId val="40390932"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26712757"/>
+        <c:axId val="52661563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4917,7 +4917,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99457258"/>
+        <c:crossAx val="40390932"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4925,7 +4925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99457258"/>
+        <c:axId val="40390932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4962,7 +4962,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26712757"/>
+        <c:crossAx val="52661563"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5227,11 +5227,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="25843120"/>
-        <c:axId val="81681330"/>
+        <c:axId val="52459845"/>
+        <c:axId val="66869868"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25843120"/>
+        <c:axId val="52459845"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5259,7 +5259,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81681330"/>
+        <c:crossAx val="66869868"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5267,7 +5267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81681330"/>
+        <c:axId val="66869868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5304,7 +5304,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25843120"/>
+        <c:crossAx val="52459845"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5569,11 +5569,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="33441015"/>
-        <c:axId val="20214280"/>
+        <c:axId val="49800655"/>
+        <c:axId val="35756168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="33441015"/>
+        <c:axId val="49800655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5601,7 +5601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20214280"/>
+        <c:crossAx val="35756168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5609,7 +5609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20214280"/>
+        <c:axId val="35756168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5646,7 +5646,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33441015"/>
+        <c:crossAx val="49800655"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5679,13 +5679,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>900360</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>735840</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:colOff>735480</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -5694,8 +5694,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3970440" y="3905640"/>
-        <a:ext cx="9319680" cy="5399280"/>
+        <a:off x="3971160" y="3715200"/>
+        <a:ext cx="9319320" cy="5398920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5719,9 +5719,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>469440</xdr:colOff>
+      <xdr:colOff>469080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5730,7 +5730,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3481560" y="0"/>
-        <a:ext cx="9027360" cy="5399280"/>
+        <a:ext cx="9041040" cy="5398920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5754,9 +5754,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>375840</xdr:colOff>
+      <xdr:colOff>375480</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5765,7 +5765,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3387960" y="136080"/>
-        <a:ext cx="9027360" cy="5399280"/>
+        <a:ext cx="9041040" cy="5398920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5789,9 +5789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>530280</xdr:colOff>
+      <xdr:colOff>529920</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5800,7 +5800,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3542400" y="167040"/>
-        <a:ext cx="9027360" cy="5399280"/>
+        <a:ext cx="9041040" cy="5398920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5824,9 +5824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>545760</xdr:colOff>
+      <xdr:colOff>545400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5835,7 +5835,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3557880" y="254160"/>
-        <a:ext cx="9027360" cy="5399280"/>
+        <a:ext cx="9041040" cy="5398920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5859,9 +5859,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>514800</xdr:colOff>
+      <xdr:colOff>514440</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5870,7 +5870,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3526920" y="237960"/>
-        <a:ext cx="9027360" cy="5399280"/>
+        <a:ext cx="9041040" cy="5398920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5894,9 +5894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5905,7 +5905,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3780000" y="0"/>
-        <a:ext cx="9027360" cy="5399280"/>
+        <a:ext cx="9041040" cy="5398920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5929,9 +5929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>668160</xdr:colOff>
+      <xdr:colOff>667800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5940,7 +5940,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3680280" y="0"/>
-        <a:ext cx="9027360" cy="5399280"/>
+        <a:ext cx="9041040" cy="5398920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5964,9 +5964,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>285120</xdr:colOff>
+      <xdr:colOff>284760</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5975,7 +5975,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3297240" y="55440"/>
-        <a:ext cx="9027360" cy="5399280"/>
+        <a:ext cx="9041040" cy="5398920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5999,9 +5999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>177840</xdr:colOff>
+      <xdr:colOff>177480</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6010,7 +6010,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3189960" y="0"/>
-        <a:ext cx="9027360" cy="5399280"/>
+        <a:ext cx="9041040" cy="5398920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6030,8 +6030,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6108,7 +6108,7 @@
         <v>0.012003140241968</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.008876770890413</v>
+        <v>0.010224294628065</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>0.008790711736114</v>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="L2" s="2" t="n">
         <f aca="false">SUM(B2:J2)</f>
-        <v>0.085065253720098</v>
+        <v>0.08641277745775</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6144,7 +6144,7 @@
         <v>0.008649766002991</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.008876770890413</v>
+        <v>0.001727155126607</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0.008790711736114</v>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="L3" s="2" t="n">
         <f aca="false">SUM(B3:J3)</f>
-        <v>0.071827783432081</v>
+        <v>0.064678167668275</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6162,35 +6162,35 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.001996329427782</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.006093012196034</v>
+        <v>0.012616067188489</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.008858344911054</v>
+        <v>0.005676956348873</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.004978587711005</v>
+        <v>0.001227048417644</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0.007574761299083</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.00738639270377</v>
+        <v>0.008070316845122</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.008876770890413</v>
+        <v>0.010824838970765</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0.005298241828414</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.00972014390414</v>
+        <v>0.004538845215916</v>
       </c>
       <c r="L4" s="2" t="n">
         <f aca="false">SUM(B4:J4)</f>
-        <v>0.060782584871695</v>
+        <v>0.059042100815954</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6198,35 +6198,35 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.003215024701648</v>
+        <v>0.001996329427782</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.012616067188489</v>
+        <v>0.006093012196034</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.005676956348873</v>
+        <v>0.008858344911054</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.001227048417644</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0.007574761299083</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.008070316845122</v>
+        <v>0.00738639270377</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.008876770890413</v>
+        <v>0.003344576386966</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>0.005298241828414</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.004538845215916</v>
+        <v>0.00972014390414</v>
       </c>
       <c r="L5" s="2" t="n">
         <f aca="false">SUM(B5:J5)</f>
-        <v>0.057094032735602</v>
+        <v>0.055250390368248</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6252,7 +6252,7 @@
         <v>0.006393150913425</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.005721141311357</v>
+        <v>0.008332172256335</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>0.005298241828414</v>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="L6" s="2" t="n">
         <f aca="false">SUM(B6:J6)</f>
-        <v>0.046917592382262</v>
+        <v>0.04952862332724</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6288,7 +6288,7 @@
         <v>0.008536521057152</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.003460689351617</v>
+        <v>0.005595059618077</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>0.005298241828414</v>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="L7" s="2" t="n">
         <f aca="false">SUM(B7:J7)</f>
-        <v>0.042212393690011</v>
+        <v>0.044346763956471</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6306,7 +6306,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.008334707360577</v>
+        <v>0.005386716562362</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0.006093012196034</v>
@@ -6321,20 +6321,20 @@
         <v>0.004590962249284</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.003993214448657</v>
+        <v>0.005874269119448</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.005721141311357</v>
+        <v>0.006066249057602</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.001721053265594</v>
+        <v>0.003006415811732</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.00262651400929</v>
+        <v>0.004538845215916</v>
       </c>
       <c r="L8" s="2" t="n">
         <f aca="false">SUM(B8:J8)</f>
-        <v>0.041164019757178</v>
+        <v>0.043639885128763</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6342,7 +6342,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.005386716562362</v>
+        <v>0.008334707360577</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0.006093012196034</v>
@@ -6357,20 +6357,20 @@
         <v>0.004590962249284</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.005874269119448</v>
+        <v>0.003993214448657</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.003460689351617</v>
+        <v>0.005357213131275</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.003006415811732</v>
+        <v>0.001721053265594</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.004538845215916</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L9" s="2" t="n">
         <f aca="false">SUM(B9:J9)</f>
-        <v>0.041034325422778</v>
+        <v>0.040800091577096</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6378,10 +6378,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.008334707360577</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.001604043270523</v>
+        <v>0.006093012196034</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0.00310482720538</v>
@@ -6390,13 +6390,13 @@
         <v>0.004978587711005</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.007574761299083</v>
+        <v>0.004590962249284</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.004526991414819</v>
+        <v>0.002385500924686</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.001949171470009</v>
+        <v>0.008045057661229</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>0.005298241828414</v>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="L10" s="2" t="n">
         <f aca="false">SUM(B10:J10)</f>
-        <v>0.0399978455691</v>
+        <v>0.04033772848697</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6414,35 +6414,35 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.003215024701648</v>
+        <v>0.008334707360577</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.002547296380556</v>
+        <v>0.001604043270523</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.008858344911054</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>0.004978587711005</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.004590962249284</v>
+        <v>0.007574761299083</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.002754130818816</v>
+        <v>0.004526991414819</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.005721141311357</v>
+        <v>0.001158769453802</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.001721053265594</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>0.00262651400929</v>
       </c>
       <c r="L11" s="2" t="n">
         <f aca="false">SUM(B11:J11)</f>
-        <v>0.037013055358604</v>
+        <v>0.039207443552893</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6450,10 +6450,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.003215024701648</v>
+        <v>0.005386716562362</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.006093012196034</v>
+        <v>0.003936177265735</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0.00310482720538</v>
@@ -6465,20 +6465,20 @@
         <v>0.004590962249284</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.002385500924686</v>
+        <v>0.001031410320711</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.003460689351617</v>
+        <v>0.009738711122335</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.005298241828414</v>
+        <v>0.003006415811732</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>0.00262651400929</v>
       </c>
       <c r="L12" s="2" t="n">
         <f aca="false">SUM(B12:J12)</f>
-        <v>0.035753360177358</v>
+        <v>0.038400322257834</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,7 +6504,7 @@
         <v>0.003678451011629</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.003460689351617</v>
+        <v>0.007764599397036</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>0.005298241828414</v>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="L13" s="2" t="n">
         <f aca="false">SUM(B13:J13)</f>
-        <v>0.033051698578162</v>
+        <v>0.037355608623581</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6522,13 +6522,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.001365297442266</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.001604043270523</v>
+        <v>0.002547296380556</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.00310482720538</v>
+        <v>0.008858344911054</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0.004978587711005</v>
@@ -6537,20 +6537,20 @@
         <v>0.004590962249284</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0.004877972263608</v>
+        <v>0.002754130818816</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.003460689351617</v>
+        <v>0.004210474940119</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.005298241828414</v>
+        <v>0.001721053265594</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>0.00262651400929</v>
       </c>
       <c r="L14" s="2" t="n">
         <f aca="false">SUM(B14:J14)</f>
-        <v>0.031907135331387</v>
+        <v>0.035502388987366</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6576,7 +6576,7 @@
         <v>0.002761849066697</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.001949171470009</v>
+        <v>0.00450840558284</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>0.003006415811732</v>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="L15" s="2" t="n">
         <f aca="false">SUM(B15:J15)</f>
-        <v>0.031198347509156</v>
+        <v>0.033757581621987</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6594,10 +6594,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.005386716562362</v>
+        <v>0.001365297442266</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.003936177265735</v>
+        <v>0.001604043270523</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0.00310482720538</v>
@@ -6609,20 +6609,20 @@
         <v>0.004590962249284</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.001031410320711</v>
+        <v>0.004877972263608</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.001949171470009</v>
+        <v>0.002436650095619</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.003006415811732</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J16" s="2" t="n">
         <v>0.00262651400929</v>
       </c>
       <c r="L16" s="2" t="n">
         <f aca="false">SUM(B16:J16)</f>
-        <v>0.030610782605508</v>
+        <v>0.030883096075389</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,7 +6648,7 @@
         <v>0.003359515611924</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.001949171470009</v>
+        <v>0.001079726076436</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>0.003006415811732</v>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="L17" s="2" t="n">
         <f aca="false">SUM(B17:J17)</f>
-        <v>0.030606753901509</v>
+        <v>0.029737308507936</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6684,7 +6684,7 @@
         <v>0.003418646529607</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.001949171470009</v>
+        <v>0.001108104791156</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>0.001721053265594</v>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="L18" s="2" t="n">
         <f aca="false">SUM(B18:J18)</f>
-        <v>0.028717148739673</v>
+        <v>0.02787608206082</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6720,7 +6720,7 @@
         <v>0.002685852537286</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.001949171470009</v>
+        <v>0.001045358678586</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>0.003006415811732</v>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="L19" s="2" t="n">
         <f aca="false">SUM(B19:J19)</f>
-        <v>0.026875358066456</v>
+        <v>0.025971545275033</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6738,35 +6738,35 @@
         <v>28</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.000739874355386</v>
+        <v>0.005386716562362</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.001604043270523</v>
+        <v>0.002547296380556</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0.00310482720538</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.000684445390785</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0.00167154587665</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0.004105057495601</v>
+        <v>0.001457547491935</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.005721141311357</v>
+        <v>0.001069167653499</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.005298241828414</v>
+        <v>0.001721053265594</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.00262651400929</v>
+        <v>0.001483640166952</v>
       </c>
       <c r="L20" s="2" t="n">
         <f aca="false">SUM(B20:J20)</f>
-        <v>0.025555690743386</v>
+        <v>0.023420382313933</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6774,25 +6774,25 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.005386716562362</v>
+        <v>0.008334707360577</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.002547296380556</v>
+        <v>0.001034177644024</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.00310482720538</v>
+        <v>0.005676956348873</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.004978587711005</v>
+        <v>0.000684445390785</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0.00167154587665</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.001457547491935</v>
+        <v>0.000898891642548</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.001949171470009</v>
+        <v>0.000926272487273</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>0.001721053265594</v>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="L21" s="2" t="n">
         <f aca="false">SUM(B21:J21)</f>
-        <v>0.024300386130443</v>
+        <v>0.022431690183276</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6828,7 +6828,7 @@
         <v>0.001416206372331</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.001949171470009</v>
+        <v>0.000879694594438</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>0.001721053265594</v>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="L22" s="2" t="n">
         <f aca="false">SUM(B22:J22)</f>
-        <v>0.023476234035304</v>
+        <v>0.022406757159733</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6846,35 +6846,35 @@
         <v>31</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.008334707360577</v>
+        <v>0.003215024701648</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.001034177644024</v>
+        <v>0.001604043270523</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.005676956348873</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.000684445390785</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0.00167154587665</v>
+        <v>0.002753185493444</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.000898891642548</v>
+        <v>0.001063784135254</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.001949171470009</v>
+        <v>0.001112962075765</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.001721053265594</v>
+        <v>0.003006415811732</v>
       </c>
       <c r="J23" s="2" t="n">
         <v>0.001483640166952</v>
       </c>
       <c r="L23" s="2" t="n">
         <f aca="false">SUM(B23:J23)</f>
-        <v>0.023454589166012</v>
+        <v>0.022322470571703</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6882,7 +6882,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.003215024701648</v>
+        <v>0.000739874355386</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>0.001604043270523</v>
@@ -6891,26 +6891,26 @@
         <v>0.00310482720538</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.004978587711005</v>
+        <v>0.000684445390785</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0.002753185493444</v>
+        <v>0.00167154587665</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0.001063784135254</v>
+        <v>0.004105057495601</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.001949171470009</v>
+        <v>0.001267402216809</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.003006415811732</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.001483640166952</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L24" s="2" t="n">
         <f aca="false">SUM(B24:J24)</f>
-        <v>0.023158679965947</v>
+        <v>0.021101951648838</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6918,35 +6918,35 @@
         <v>33</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.000739874355386</v>
+        <v>0.001996329427782</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.001034177644024</v>
+        <v>0.001604043270523</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.000742424887185</v>
+        <v>0.00310482720538</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.000684445390785</v>
+        <v>0.004978587711005</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.000675822484444</v>
+        <v>0.00167154587665</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0.003956900450265</v>
+        <v>0.001674017755082</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.005721141311357</v>
+        <v>0.002297743706232</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.005298241828414</v>
+        <v>0.001721053265594</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.00262651400929</v>
+        <v>0.001483640166952</v>
       </c>
       <c r="L25" s="2" t="n">
         <f aca="false">SUM(B25:J25)</f>
-        <v>0.02147954236115</v>
+        <v>0.0205317883852</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6954,35 +6954,35 @@
         <v>34</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.001996329427782</v>
+        <v>0.000739874355386</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.001604043270523</v>
+        <v>0.001034177644024</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.00310482720538</v>
+        <v>0.000742424887185</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.004978587711005</v>
+        <v>0.000684445390785</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>0.00167154587665</v>
+        <v>0.000675822484444</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0.001674017755082</v>
+        <v>0.003956900450265</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.001949171470009</v>
+        <v>0.004515161078543</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.001721053265594</v>
+        <v>0.005298241828414</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.001483640166952</v>
+        <v>0.00262651400929</v>
       </c>
       <c r="L26" s="2" t="n">
         <f aca="false">SUM(B26:J26)</f>
-        <v>0.020183216148977</v>
+        <v>0.020273562128336</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7008,7 +7008,7 @@
         <v>0.00092493106705</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.00089495577286</v>
+        <v>0.000514002090898</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>0.001721053265594</v>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="L27" s="2" t="n">
         <f aca="false">SUM(B27:J27)</f>
-        <v>0.019598609037662</v>
+        <v>0.0192176553557</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7044,7 +7044,7 @@
         <v>0.001251017424327</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.003460689351617</v>
+        <v>0.002816646618622</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>0.005298241828414</v>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="L28" s="2" t="n">
         <f aca="false">SUM(B28:J28)</f>
-        <v>0.018134353854558</v>
+        <v>0.017490311121563</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7080,7 +7080,7 @@
         <v>0.001113634833004</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.001949171470009</v>
+        <v>0.00123376812908</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>0.001721053265594</v>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="L29" s="2" t="n">
         <f aca="false">SUM(B29:J29)</f>
-        <v>0.014893872483323</v>
+        <v>0.014178469142394</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7116,7 +7116,7 @@
         <v>0.0008620306114</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.001949171470009</v>
+        <v>0.001910873485104</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>0.001721053265594</v>
@@ -7126,8 +7126,95 @@
       </c>
       <c r="L30" s="2" t="n">
         <f aca="false">SUM(B30:J30)</f>
-        <v>0.01393535422463</v>
-      </c>
+        <v>0.013897056239725</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2"/>
     </row>
     <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7219,7 +7306,7 @@
       <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -7243,7 +7330,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.087905973568946</v>
@@ -7275,7 +7362,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0.044966260643932</v>
@@ -7291,7 +7378,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0.03230960639619</v>
@@ -7299,7 +7386,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0.031517045167171</v>
@@ -7315,7 +7402,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.027071367472617</v>
@@ -7323,7 +7410,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.027042723127141</v>
@@ -7331,7 +7418,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0.026814927299615</v>
@@ -7355,7 +7442,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>0.020749890561298</v>
@@ -7363,7 +7450,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>0.020129038972496</v>
@@ -7379,7 +7466,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.0181906631702</v>
@@ -7387,7 +7474,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.01792643196933</v>
@@ -7411,7 +7498,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0.015279658352717</v>
@@ -7419,7 +7506,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.015011008796529</v>
@@ -7443,7 +7530,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0.011679525708987</v>
@@ -7451,7 +7538,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0.011561594442748</v>
@@ -7481,7 +7568,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -7497,7 +7584,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.008334707360577</v>
@@ -7505,7 +7592,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.008334707360577</v>
@@ -7513,7 +7600,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.008334707360577</v>
@@ -7521,7 +7608,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.005386716562362</v>
@@ -7545,7 +7632,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0.005386716562362</v>
@@ -7553,7 +7640,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0.005386716562362</v>
@@ -7561,7 +7648,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0.003215024701648</v>
@@ -7585,7 +7672,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.003215024701648</v>
@@ -7593,7 +7680,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0.003215024701648</v>
@@ -7633,7 +7720,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.003215024701648</v>
@@ -7657,7 +7744,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0.001996329427782</v>
@@ -7665,7 +7752,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0.001996329427782</v>
@@ -7673,7 +7760,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0.001365297442266</v>
@@ -7697,7 +7784,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0.000739874355386</v>
@@ -7705,7 +7792,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0.000739874355386</v>
@@ -7743,7 +7830,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -7751,7 +7838,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="n">
         <v>0.105348529428444</v>
@@ -7775,7 +7862,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.064866180032911</v>
@@ -7791,7 +7878,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.055607565813788</v>
@@ -7807,7 +7894,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0.048129464381569</v>
@@ -7815,7 +7902,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0.048014111675626</v>
@@ -7823,7 +7910,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0.039834271447787</v>
@@ -7871,7 +7958,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>0.022171817245874</v>
@@ -7879,7 +7966,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>0.020965065092429</v>
@@ -7895,7 +7982,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.015894191082612</v>
@@ -7903,7 +7990,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.015509184528179</v>
@@ -7911,7 +7998,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.015211539473307</v>
@@ -7919,7 +8006,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0.014328201133119</v>
@@ -7927,7 +8014,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0.013627594100795</v>
@@ -7943,7 +8030,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.009771889326081</v>
@@ -7975,7 +8062,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0.007960454987921</v>
@@ -8005,7 +8092,7 @@
       <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -8029,7 +8116,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.068219277390311</v>
@@ -8037,7 +8124,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.064449339923628</v>
@@ -8045,7 +8132,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.062203537327136</v>
@@ -8053,7 +8140,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.040598904839344</v>
@@ -8077,7 +8164,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0.035617766799374</v>
@@ -8101,7 +8188,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.031175177368103</v>
@@ -8109,7 +8196,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.03087007646131</v>
@@ -8125,7 +8212,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>0.029720582226684</v>
@@ -8133,7 +8220,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>0.029405771598589</v>
@@ -8149,7 +8236,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>0.028420775813248</v>
@@ -8165,7 +8252,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.027752928423081</v>
@@ -8181,7 +8268,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0.022935740921226</v>
@@ -8189,7 +8276,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0.022531312675494</v>
@@ -8205,7 +8292,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.020563865739677</v>
@@ -8237,7 +8324,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0.006382251361017</v>
@@ -8267,7 +8354,7 @@
       <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -8275,7 +8362,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="n">
         <v>0.058831297098991</v>
@@ -8283,7 +8370,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.058525645061123</v>
@@ -8307,7 +8394,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.05112212201548</v>
@@ -8315,7 +8402,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.049527650205596</v>
@@ -8323,7 +8410,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0.048081625986722</v>
@@ -8331,7 +8418,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0.048046560901628</v>
@@ -8355,7 +8442,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0.045555915861254</v>
@@ -8363,7 +8450,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.042556884983299</v>
@@ -8371,7 +8458,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.042044938065819</v>
@@ -8419,7 +8506,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.033511462691393</v>
@@ -8435,7 +8522,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.03309121946581</v>
@@ -8451,7 +8538,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0.009994823488857</v>
@@ -8467,7 +8554,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.006671801894485</v>
@@ -8475,7 +8562,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0.006610928234244</v>
@@ -8483,7 +8570,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0.006261814762101</v>
@@ -8529,7 +8616,7 @@
       <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -8553,7 +8640,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.076076484414165</v>
@@ -8561,7 +8648,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.06912197769678</v>
@@ -8569,7 +8656,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.063029546935328</v>
@@ -8585,7 +8672,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0.048674028289121</v>
@@ -8601,7 +8688,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0.039184942390971</v>
@@ -8617,7 +8704,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0.037971282374854</v>
@@ -8625,7 +8712,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.034644013205869</v>
@@ -8633,7 +8720,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.032927423312378</v>
@@ -8641,7 +8728,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0.03159265848666</v>
@@ -8681,7 +8768,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.021353152555967</v>
@@ -8689,7 +8776,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.018338843883817</v>
@@ -8697,7 +8784,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.017629997489596</v>
@@ -8737,7 +8824,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0.014039511827619</v>
@@ -8745,7 +8832,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0.011854508870798</v>
@@ -8761,7 +8848,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0.005551256152628</v>
@@ -8791,7 +8878,7 @@
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -8823,7 +8910,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.008070316845122</v>
@@ -8831,7 +8918,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.00738639270377</v>
@@ -8847,7 +8934,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0.005874269119448</v>
@@ -8855,7 +8942,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0.004877972263608</v>
@@ -8863,7 +8950,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0.004526991414819</v>
@@ -8871,7 +8958,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0.004105057495601</v>
@@ -8879,7 +8966,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0.003993214448657</v>
@@ -8887,7 +8974,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.003956900450265</v>
@@ -8927,7 +9014,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>0.002754130818816</v>
@@ -8943,7 +9030,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.002385500924686</v>
@@ -8951,7 +9038,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.001674017755082</v>
@@ -8959,7 +9046,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.001457547491935</v>
@@ -8991,7 +9078,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.001063784135254</v>
@@ -8999,7 +9086,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0.001031410320711</v>
@@ -9015,7 +9102,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0.000898891642548</v>
@@ -9050,10 +9137,10 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -9061,10 +9148,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>0.090096125414076</v>
+        <v>0.010824838970765</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9072,95 +9159,95 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.078982138151358</v>
+        <v>0.010224294628065</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.071628353191058</v>
+        <v>0.009738711122335</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.069237826450574</v>
+        <v>0.008332172256335</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.058253229676763</v>
+        <v>0.008045057661229</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.057984039973476</v>
+        <v>0.007764599397036</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.054946647186877</v>
+        <v>0.006066249057602</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.053538469265407</v>
+        <v>0.005595059618077</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.046334674921034</v>
+        <v>0.005357213131275</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.038071592934346</v>
+        <v>0.004515161078543</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.03642963849015</v>
+        <v>0.00450840558284</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.03465610760295</v>
+        <v>0.004210474940119</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.024907018904141</v>
+        <v>0.003344576386966</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9168,119 +9255,119 @@
         <v>36</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.024464122771134</v>
+        <v>0.002816646618622</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.023812194241013</v>
+        <v>0.002436650095619</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.022829854887943</v>
+        <v>0.002297743706232</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.021350074366069</v>
+        <v>0.001910873485104</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.021287785622696</v>
+        <v>0.001727155126607</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.018779772980777</v>
+        <v>0.001267402216809</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.017579271680151</v>
+        <v>0.00123376812908</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.017313266154351</v>
+        <v>0.001158769453802</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.016388214911352</v>
+        <v>0.001112962075765</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.016190747502871</v>
+        <v>0.001108104791156</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.015876403070282</v>
+        <v>0.001079726076436</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.015845764060073</v>
+        <v>0.001069167653499</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.015412160604796</v>
+        <v>0.001045358678586</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.01476967336852</v>
+        <v>0.000926272487273</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.01446824236088</v>
+        <v>0.000879694594438</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9288,7 +9375,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.008566589254884</v>
+        <v>0.000514002090898</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9315,7 +9402,7 @@
       <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.16"/>
@@ -9347,7 +9434,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.057724371735422</v>
@@ -9355,7 +9442,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.05592545089873</v>
@@ -9371,7 +9458,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0.052465145611822</v>
@@ -9379,7 +9466,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0.048221707957468</v>
@@ -9395,7 +9482,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0.046541224335632</v>
@@ -9403,7 +9490,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0.046525887150695</v>
@@ -9411,7 +9498,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.045508749885371</v>
@@ -9427,7 +9514,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0.032408625344459</v>
@@ -9435,7 +9522,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>0.028626491091521</v>
@@ -9443,7 +9530,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>0.024606953765649</v>
@@ -9475,7 +9562,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.018288521467022</v>
@@ -9483,7 +9570,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.017376257140601</v>
@@ -9499,7 +9586,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0.01655391028625</v>
@@ -9507,7 +9594,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0.015631478846691</v>
@@ -9523,7 +9610,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0.014986629524184</v>
